--- a/用例数据/沪A/上海ETF发行/T日/测试结果.xlsx
+++ b/用例数据/沪A/上海ETF发行/T日/测试结果.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\沪A\上海ETF发行\T日\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="9420" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="todaytraderslt" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="542">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -899,18 +904,12 @@
     <t>LISTEDSTATUS</t>
   </si>
   <si>
-    <t>100041</t>
-  </si>
-  <si>
     <t>005_001_009</t>
   </si>
   <si>
     <t>-501900.000</t>
   </si>
   <si>
-    <t>4468100.000</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -926,9 +925,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>100042</t>
-  </si>
-  <si>
     <t>-100380.000</t>
   </si>
   <si>
@@ -938,27 +934,6 @@
     <t>600000</t>
   </si>
   <si>
-    <t>PURCHASEDATE</t>
-  </si>
-  <si>
-    <t>ORDERPRICE</t>
-  </si>
-  <si>
-    <t>PAYQTY</t>
-  </si>
-  <si>
-    <t>LUCKYPAYDAYS</t>
-  </si>
-  <si>
-    <t>ISSENDGIVEUPFLAG</t>
-  </si>
-  <si>
-    <t>RESIDUALPURCHASEFLAG</t>
-  </si>
-  <si>
-    <t>PAYQTY0</t>
-  </si>
-  <si>
     <t>EXCHTRUSTEESHIPQTY</t>
   </si>
   <si>
@@ -1632,19 +1607,58 @@
   </si>
   <si>
     <t>-602280.000</t>
+  </si>
+  <si>
+    <t>CREDITSHAREGOINGQTY</t>
+  </si>
+  <si>
+    <t>CREDITUSABLEQTY</t>
+  </si>
+  <si>
+    <t>CREDITBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>ADJUSTEDFEEFLAG</t>
+  </si>
+  <si>
+    <t>BUSINESSCODE</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>30051525</t>
+  </si>
+  <si>
+    <t>20221007203249</t>
+  </si>
+  <si>
+    <t>20221007150000</t>
+  </si>
+  <si>
+    <t>-366041.600</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>20221007143818</t>
+  </si>
+  <si>
+    <t>30051526</t>
+  </si>
+  <si>
+    <t>-466421.600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1656,348 +1670,26 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2005,312 +1697,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2597,63 +2003,63 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="7.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="10.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="11.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="9.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="11.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="9.66666666666667" customWidth="1"/>
-    <col min="14" max="14" width="11.8888888888889" customWidth="1"/>
-    <col min="15" max="15" width="15.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="14.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="15.25" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
     <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="15.2222222222222" customWidth="1"/>
-    <col min="19" max="19" width="7.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="10.7777777777778" customWidth="1"/>
-    <col min="21" max="21" width="14.1111111111111" customWidth="1"/>
-    <col min="22" max="22" width="19.7777777777778" customWidth="1"/>
-    <col min="23" max="24" width="14.1111111111111" customWidth="1"/>
-    <col min="25" max="25" width="9.66666666666667" customWidth="1"/>
-    <col min="26" max="26" width="23.1111111111111" customWidth="1"/>
-    <col min="27" max="27" width="10.7777777777778" customWidth="1"/>
-    <col min="28" max="28" width="15.2222222222222" customWidth="1"/>
-    <col min="29" max="30" width="14.1111111111111" customWidth="1"/>
+    <col min="18" max="18" width="15.25" customWidth="1"/>
+    <col min="19" max="19" width="7.625" customWidth="1"/>
+    <col min="20" max="20" width="10.75" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="19.75" customWidth="1"/>
+    <col min="23" max="24" width="14.125" customWidth="1"/>
+    <col min="25" max="25" width="9.625" customWidth="1"/>
+    <col min="26" max="26" width="23.125" customWidth="1"/>
+    <col min="27" max="27" width="10.75" customWidth="1"/>
+    <col min="28" max="28" width="15.25" customWidth="1"/>
+    <col min="29" max="30" width="14.125" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="10.7777777777778" customWidth="1"/>
-    <col min="33" max="33" width="14.1111111111111" customWidth="1"/>
-    <col min="34" max="34" width="11.8888888888889" customWidth="1"/>
-    <col min="35" max="35" width="14.1111111111111" customWidth="1"/>
-    <col min="36" max="36" width="8.66666666666667" customWidth="1"/>
-    <col min="37" max="37" width="15.2222222222222" customWidth="1"/>
-    <col min="38" max="38" width="10.7777777777778" customWidth="1"/>
-    <col min="39" max="42" width="11.8888888888889" customWidth="1"/>
-    <col min="43" max="43" width="9.66666666666667" customWidth="1"/>
-    <col min="44" max="44" width="7.66666666666667" customWidth="1"/>
-    <col min="45" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="46" width="10.7777777777778" customWidth="1"/>
+    <col min="32" max="32" width="10.75" customWidth="1"/>
+    <col min="33" max="33" width="14.125" customWidth="1"/>
+    <col min="34" max="34" width="11.875" customWidth="1"/>
+    <col min="35" max="35" width="14.125" customWidth="1"/>
+    <col min="36" max="36" width="8.625" customWidth="1"/>
+    <col min="37" max="37" width="15.25" customWidth="1"/>
+    <col min="38" max="38" width="10.75" customWidth="1"/>
+    <col min="39" max="42" width="11.875" customWidth="1"/>
+    <col min="43" max="43" width="9.625" customWidth="1"/>
+    <col min="44" max="44" width="7.625" customWidth="1"/>
+    <col min="45" max="45" width="14.125" customWidth="1"/>
+    <col min="46" max="46" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:46">
+    <row r="1" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2793,7 +2199,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:46">
+    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -2912,7 +2318,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:46">
+    <row r="3" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -3032,144 +2438,143 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="5" width="11.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="19.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="14.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="9.66666666666667" customWidth="1"/>
-    <col min="9" max="11" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="11" width="11.875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="10.7777777777778" customWidth="1"/>
-    <col min="14" max="14" width="7.66666666666667" customWidth="1"/>
-    <col min="15" max="16" width="8.66666666666667" customWidth="1"/>
-    <col min="17" max="17" width="10.7777777777778" customWidth="1"/>
-    <col min="18" max="18" width="16.4444444444444" customWidth="1"/>
-    <col min="19" max="19" width="9.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="7.66666666666667" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="9.625" customWidth="1"/>
+    <col min="20" max="20" width="7.625" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="10.7777777777778" customWidth="1"/>
-    <col min="23" max="23" width="23.1111111111111" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="15.2222222222222" customWidth="1"/>
-    <col min="26" max="27" width="14.1111111111111" customWidth="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="23.125" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="15.25" customWidth="1"/>
+    <col min="26" max="27" width="14.125" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="10.7777777777778" customWidth="1"/>
-    <col min="30" max="30" width="14.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="11.8888888888889" customWidth="1"/>
-    <col min="32" max="32" width="14.1111111111111" customWidth="1"/>
-    <col min="33" max="33" width="9.66666666666667" customWidth="1"/>
+    <col min="29" max="29" width="10.75" customWidth="1"/>
+    <col min="30" max="30" width="14.125" customWidth="1"/>
+    <col min="31" max="31" width="11.875" customWidth="1"/>
+    <col min="32" max="32" width="14.125" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="9.66666666666667" customWidth="1"/>
-    <col min="36" max="36" width="14.1111111111111" customWidth="1"/>
-    <col min="37" max="37" width="26.5555555555556" customWidth="1"/>
+    <col min="35" max="35" width="9.625" customWidth="1"/>
+    <col min="36" max="36" width="14.125" customWidth="1"/>
+    <col min="37" max="37" width="26.5" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="9.66666666666667" customWidth="1"/>
-    <col min="40" max="40" width="8.66666666666667" customWidth="1"/>
-    <col min="41" max="41" width="9.66666666666667" customWidth="1"/>
-    <col min="42" max="42" width="14.1111111111111" customWidth="1"/>
-    <col min="43" max="43" width="9.66666666666667" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="46" width="17.5555555555556" customWidth="1"/>
-    <col min="47" max="47" width="7.66666666666667" customWidth="1"/>
-    <col min="48" max="48" width="17.5555555555556" customWidth="1"/>
-    <col min="49" max="49" width="20.8888888888889" customWidth="1"/>
-    <col min="50" max="50" width="15.2222222222222" customWidth="1"/>
-    <col min="51" max="51" width="14.1111111111111" customWidth="1"/>
-    <col min="52" max="52" width="7.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="17.5555555555556" customWidth="1"/>
-    <col min="54" max="54" width="19.7777777777778" customWidth="1"/>
-    <col min="55" max="55" width="11.8888888888889" customWidth="1"/>
-    <col min="56" max="56" width="8.66666666666667" customWidth="1"/>
-    <col min="57" max="57" width="16.4444444444444" customWidth="1"/>
-    <col min="58" max="58" width="14.1111111111111" customWidth="1"/>
-    <col min="59" max="59" width="17.5555555555556" customWidth="1"/>
-    <col min="60" max="60" width="16.4444444444444" customWidth="1"/>
+    <col min="39" max="39" width="9.625" customWidth="1"/>
+    <col min="40" max="40" width="8.625" customWidth="1"/>
+    <col min="41" max="41" width="9.625" customWidth="1"/>
+    <col min="42" max="42" width="14.125" customWidth="1"/>
+    <col min="43" max="43" width="9.625" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="46" width="17.5" customWidth="1"/>
+    <col min="47" max="47" width="7.625" customWidth="1"/>
+    <col min="48" max="48" width="17.5" customWidth="1"/>
+    <col min="49" max="49" width="20.875" customWidth="1"/>
+    <col min="50" max="50" width="15.25" customWidth="1"/>
+    <col min="51" max="51" width="14.125" customWidth="1"/>
+    <col min="52" max="52" width="7.625" customWidth="1"/>
+    <col min="53" max="53" width="17.5" customWidth="1"/>
+    <col min="54" max="54" width="19.75" customWidth="1"/>
+    <col min="55" max="55" width="11.875" customWidth="1"/>
+    <col min="56" max="56" width="8.625" customWidth="1"/>
+    <col min="57" max="57" width="16.5" customWidth="1"/>
+    <col min="58" max="58" width="14.125" customWidth="1"/>
+    <col min="59" max="59" width="17.5" customWidth="1"/>
+    <col min="60" max="60" width="16.5" customWidth="1"/>
     <col min="61" max="61" width="13" customWidth="1"/>
-    <col min="62" max="62" width="18.6666666666667" customWidth="1"/>
-    <col min="63" max="63" width="6.66666666666667" customWidth="1"/>
-    <col min="64" max="65" width="15.2222222222222" customWidth="1"/>
-    <col min="66" max="66" width="11.8888888888889" customWidth="1"/>
-    <col min="67" max="67" width="17.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="20.8888888888889" customWidth="1"/>
-    <col min="69" max="69" width="16.4444444444444" customWidth="1"/>
+    <col min="62" max="62" width="18.625" customWidth="1"/>
+    <col min="63" max="63" width="6.625" customWidth="1"/>
+    <col min="64" max="65" width="15.25" customWidth="1"/>
+    <col min="66" max="66" width="11.875" customWidth="1"/>
+    <col min="67" max="67" width="17.5" customWidth="1"/>
+    <col min="68" max="68" width="20.875" customWidth="1"/>
+    <col min="69" max="69" width="16.5" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.8888888888889" customWidth="1"/>
-    <col min="72" max="72" width="8.66666666666667" customWidth="1"/>
-    <col min="73" max="73" width="10.7777777777778" customWidth="1"/>
-    <col min="74" max="74" width="15.2222222222222" customWidth="1"/>
-    <col min="75" max="75" width="11.8888888888889" customWidth="1"/>
-    <col min="76" max="76" width="10.7777777777778" customWidth="1"/>
-    <col min="77" max="78" width="17.5555555555556" customWidth="1"/>
-    <col min="79" max="79" width="16.4444444444444" customWidth="1"/>
-    <col min="80" max="80" width="11.8888888888889" customWidth="1"/>
-    <col min="81" max="81" width="18.6666666666667" customWidth="1"/>
-    <col min="82" max="82" width="19.7777777777778" customWidth="1"/>
+    <col min="71" max="71" width="11.875" customWidth="1"/>
+    <col min="72" max="72" width="8.625" customWidth="1"/>
+    <col min="73" max="73" width="10.75" customWidth="1"/>
+    <col min="74" max="74" width="15.25" customWidth="1"/>
+    <col min="75" max="75" width="11.875" customWidth="1"/>
+    <col min="76" max="76" width="10.75" customWidth="1"/>
+    <col min="77" max="78" width="17.5" customWidth="1"/>
+    <col min="79" max="79" width="16.5" customWidth="1"/>
+    <col min="80" max="80" width="11.875" customWidth="1"/>
+    <col min="81" max="81" width="18.625" customWidth="1"/>
+    <col min="82" max="82" width="19.75" customWidth="1"/>
     <col min="83" max="83" width="13" customWidth="1"/>
-    <col min="84" max="84" width="14.1111111111111" customWidth="1"/>
+    <col min="84" max="84" width="14.125" customWidth="1"/>
     <col min="85" max="86" width="13" customWidth="1"/>
-    <col min="87" max="87" width="16.4444444444444" customWidth="1"/>
-    <col min="88" max="88" width="17.5555555555556" customWidth="1"/>
-    <col min="89" max="89" width="9.66666666666667" customWidth="1"/>
-    <col min="90" max="90" width="19.7777777777778" customWidth="1"/>
-    <col min="91" max="91" width="16.4444444444444" customWidth="1"/>
-    <col min="92" max="92" width="20.8888888888889" customWidth="1"/>
-    <col min="93" max="93" width="24.2222222222222" customWidth="1"/>
-    <col min="94" max="94" width="16.4444444444444" customWidth="1"/>
-    <col min="95" max="95" width="17.5555555555556" customWidth="1"/>
+    <col min="87" max="87" width="16.5" customWidth="1"/>
+    <col min="88" max="88" width="17.5" customWidth="1"/>
+    <col min="89" max="89" width="9.625" customWidth="1"/>
+    <col min="90" max="90" width="19.75" customWidth="1"/>
+    <col min="91" max="91" width="16.5" customWidth="1"/>
+    <col min="92" max="92" width="20.875" customWidth="1"/>
+    <col min="93" max="93" width="24.25" customWidth="1"/>
+    <col min="94" max="94" width="16.5" customWidth="1"/>
+    <col min="95" max="95" width="17.5" customWidth="1"/>
     <col min="96" max="96" width="22" customWidth="1"/>
-    <col min="97" max="98" width="20.8888888888889" customWidth="1"/>
-    <col min="99" max="99" width="19.7777777777778" customWidth="1"/>
-    <col min="100" max="100" width="17.5555555555556" customWidth="1"/>
-    <col min="101" max="101" width="20.8888888888889" customWidth="1"/>
-    <col min="102" max="102" width="18.6666666666667" customWidth="1"/>
-    <col min="103" max="103" width="8.66666666666667" customWidth="1"/>
-    <col min="104" max="104" width="15.2222222222222" customWidth="1"/>
-    <col min="105" max="105" width="10.7777777777778" customWidth="1"/>
-    <col min="106" max="108" width="11.8888888888889" customWidth="1"/>
+    <col min="97" max="98" width="20.875" customWidth="1"/>
+    <col min="99" max="99" width="19.75" customWidth="1"/>
+    <col min="100" max="100" width="17.5" customWidth="1"/>
+    <col min="101" max="101" width="20.875" customWidth="1"/>
+    <col min="102" max="102" width="18.625" customWidth="1"/>
+    <col min="103" max="103" width="8.625" customWidth="1"/>
+    <col min="104" max="104" width="15.25" customWidth="1"/>
+    <col min="105" max="105" width="10.75" customWidth="1"/>
+    <col min="106" max="108" width="11.875" customWidth="1"/>
     <col min="109" max="109" width="13" customWidth="1"/>
-    <col min="110" max="110" width="16.4444444444444" customWidth="1"/>
-    <col min="111" max="111" width="15.2222222222222" customWidth="1"/>
-    <col min="112" max="113" width="17.5555555555556" customWidth="1"/>
-    <col min="114" max="114" width="16.4444444444444" customWidth="1"/>
+    <col min="110" max="110" width="16.5" customWidth="1"/>
+    <col min="111" max="111" width="15.25" customWidth="1"/>
+    <col min="112" max="113" width="17.5" customWidth="1"/>
+    <col min="114" max="114" width="16.5" customWidth="1"/>
     <col min="115" max="116" width="13" customWidth="1"/>
-    <col min="117" max="117" width="11.8888888888889" customWidth="1"/>
+    <col min="117" max="117" width="11.875" customWidth="1"/>
     <col min="118" max="119" width="13" customWidth="1"/>
-    <col min="120" max="120" width="15.2222222222222" customWidth="1"/>
-    <col min="121" max="122" width="17.5555555555556" customWidth="1"/>
-    <col min="123" max="123" width="15.2222222222222" customWidth="1"/>
-    <col min="124" max="125" width="17.5555555555556" customWidth="1"/>
-    <col min="126" max="126" width="14.1111111111111" customWidth="1"/>
-    <col min="127" max="128" width="16.4444444444444" customWidth="1"/>
-    <col min="129" max="129" width="11.8888888888889" customWidth="1"/>
-    <col min="130" max="131" width="14.1111111111111" customWidth="1"/>
-    <col min="132" max="132" width="15.2222222222222" customWidth="1"/>
-    <col min="133" max="134" width="17.5555555555556" customWidth="1"/>
+    <col min="120" max="120" width="15.25" customWidth="1"/>
+    <col min="121" max="122" width="17.5" customWidth="1"/>
+    <col min="123" max="123" width="15.25" customWidth="1"/>
+    <col min="124" max="125" width="17.5" customWidth="1"/>
+    <col min="126" max="126" width="14.125" customWidth="1"/>
+    <col min="127" max="128" width="16.5" customWidth="1"/>
+    <col min="129" max="129" width="11.875" customWidth="1"/>
+    <col min="130" max="131" width="14.125" customWidth="1"/>
+    <col min="132" max="132" width="15.25" customWidth="1"/>
+    <col min="133" max="134" width="17.5" customWidth="1"/>
     <col min="135" max="135" width="13" customWidth="1"/>
-    <col min="136" max="137" width="15.2222222222222" customWidth="1"/>
-    <col min="138" max="138" width="19.7777777777778" customWidth="1"/>
-    <col min="139" max="139" width="7.66666666666667" customWidth="1"/>
+    <col min="136" max="137" width="15.25" customWidth="1"/>
+    <col min="138" max="138" width="19.75" customWidth="1"/>
+    <col min="139" max="139" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:139">
+    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -3588,7 +2993,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:138">
+    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>177</v>
       </c>
@@ -3971,7 +3376,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:138">
+    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>177</v>
       </c>
@@ -4355,151 +3760,150 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:EF3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="7.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="19.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="7.66666666666667" customWidth="1"/>
-    <col min="15" max="16" width="8.66666666666667" customWidth="1"/>
-    <col min="17" max="17" width="10.7777777777778" customWidth="1"/>
-    <col min="18" max="18" width="8.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="7.66666666666667" customWidth="1"/>
-    <col min="21" max="21" width="10.7777777777778" customWidth="1"/>
-    <col min="22" max="22" width="9.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="16.4444444444444" customWidth="1"/>
-    <col min="25" max="25" width="14.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="11.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="19.75" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="20" width="7.625" customWidth="1"/>
+    <col min="21" max="21" width="10.75" customWidth="1"/>
+    <col min="22" max="22" width="9.625" customWidth="1"/>
+    <col min="23" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="16.5" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="26" max="26" width="11.875" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="8.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="9.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="23.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="10.7777777777778" customWidth="1"/>
-    <col min="32" max="32" width="15.2222222222222" customWidth="1"/>
-    <col min="33" max="34" width="14.1111111111111" customWidth="1"/>
+    <col min="28" max="28" width="8.625" customWidth="1"/>
+    <col min="29" max="29" width="9.625" customWidth="1"/>
+    <col min="30" max="30" width="23.125" customWidth="1"/>
+    <col min="31" max="31" width="10.75" customWidth="1"/>
+    <col min="32" max="32" width="15.25" customWidth="1"/>
+    <col min="33" max="34" width="14.125" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.66666666666667" customWidth="1"/>
+    <col min="37" max="37" width="9.625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="14.1111111111111" customWidth="1"/>
-    <col min="41" max="41" width="11.8888888888889" customWidth="1"/>
-    <col min="42" max="43" width="9.66666666666667" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="19.7777777777778" customWidth="1"/>
-    <col min="46" max="46" width="9.66666666666667" customWidth="1"/>
+    <col min="39" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="14.125" customWidth="1"/>
+    <col min="41" max="41" width="11.875" customWidth="1"/>
+    <col min="42" max="43" width="9.625" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="19.75" customWidth="1"/>
+    <col min="46" max="46" width="9.625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.1111111111111" customWidth="1"/>
-    <col min="49" max="49" width="8.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="17.5555555555556" customWidth="1"/>
-    <col min="51" max="51" width="11.8888888888889" customWidth="1"/>
-    <col min="52" max="52" width="8.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="9.66666666666667" customWidth="1"/>
+    <col min="48" max="48" width="14.125" customWidth="1"/>
+    <col min="49" max="49" width="8.625" customWidth="1"/>
+    <col min="50" max="50" width="17.5" customWidth="1"/>
+    <col min="51" max="51" width="11.875" customWidth="1"/>
+    <col min="52" max="52" width="8.625" customWidth="1"/>
+    <col min="53" max="53" width="9.625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.4444444444444" customWidth="1"/>
+    <col min="55" max="55" width="16.5" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.4444444444444" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="5.66666666666667" customWidth="1"/>
-    <col min="61" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="14.1111111111111" customWidth="1"/>
-    <col min="63" max="63" width="11.8888888888889" customWidth="1"/>
-    <col min="64" max="64" width="8.66666666666667" customWidth="1"/>
-    <col min="65" max="65" width="14.1111111111111" customWidth="1"/>
-    <col min="66" max="66" width="9.66666666666667" customWidth="1"/>
-    <col min="67" max="67" width="17.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="16.4444444444444" customWidth="1"/>
-    <col min="69" max="69" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="16.5" customWidth="1"/>
+    <col min="59" max="59" width="15.25" customWidth="1"/>
+    <col min="60" max="60" width="5.625" customWidth="1"/>
+    <col min="61" max="61" width="17.5" customWidth="1"/>
+    <col min="62" max="62" width="14.125" customWidth="1"/>
+    <col min="63" max="63" width="11.875" customWidth="1"/>
+    <col min="64" max="64" width="8.625" customWidth="1"/>
+    <col min="65" max="65" width="14.125" customWidth="1"/>
+    <col min="66" max="66" width="9.625" customWidth="1"/>
+    <col min="67" max="67" width="17.5" customWidth="1"/>
+    <col min="68" max="68" width="16.5" customWidth="1"/>
+    <col min="69" max="69" width="11.875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.8888888888889" customWidth="1"/>
-    <col min="72" max="72" width="15.2222222222222" customWidth="1"/>
-    <col min="73" max="73" width="11.8888888888889" customWidth="1"/>
+    <col min="71" max="71" width="11.875" customWidth="1"/>
+    <col min="72" max="72" width="15.25" customWidth="1"/>
+    <col min="73" max="73" width="11.875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5555555555556" customWidth="1"/>
-    <col min="76" max="76" width="20.8888888888889" customWidth="1"/>
-    <col min="77" max="77" width="16.4444444444444" customWidth="1"/>
+    <col min="75" max="75" width="17.5" customWidth="1"/>
+    <col min="76" max="76" width="20.875" customWidth="1"/>
+    <col min="77" max="77" width="16.5" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.8888888888889" customWidth="1"/>
-    <col min="80" max="80" width="10.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="11.8888888888889" customWidth="1"/>
-    <col min="82" max="82" width="9.66666666666667" customWidth="1"/>
-    <col min="83" max="83" width="7.66666666666667" customWidth="1"/>
-    <col min="84" max="85" width="17.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="16.4444444444444" customWidth="1"/>
-    <col min="87" max="87" width="11.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="14.1111111111111" customWidth="1"/>
-    <col min="89" max="89" width="11.8888888888889" customWidth="1"/>
-    <col min="90" max="90" width="10.7777777777778" customWidth="1"/>
-    <col min="91" max="91" width="11.8888888888889" customWidth="1"/>
-    <col min="92" max="92" width="19.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="16.4444444444444" customWidth="1"/>
-    <col min="94" max="94" width="23.1111111111111" customWidth="1"/>
-    <col min="95" max="95" width="7.66666666666667" customWidth="1"/>
-    <col min="96" max="96" width="18.6666666666667" customWidth="1"/>
-    <col min="97" max="97" width="10.7777777777778" customWidth="1"/>
-    <col min="98" max="98" width="14.1111111111111" customWidth="1"/>
+    <col min="79" max="79" width="11.875" customWidth="1"/>
+    <col min="80" max="80" width="10.75" customWidth="1"/>
+    <col min="81" max="81" width="11.875" customWidth="1"/>
+    <col min="82" max="82" width="9.625" customWidth="1"/>
+    <col min="83" max="83" width="7.625" customWidth="1"/>
+    <col min="84" max="85" width="17.5" customWidth="1"/>
+    <col min="86" max="86" width="16.5" customWidth="1"/>
+    <col min="87" max="87" width="11.875" customWidth="1"/>
+    <col min="88" max="88" width="14.125" customWidth="1"/>
+    <col min="89" max="89" width="11.875" customWidth="1"/>
+    <col min="90" max="90" width="10.75" customWidth="1"/>
+    <col min="91" max="91" width="11.875" customWidth="1"/>
+    <col min="92" max="92" width="19.75" customWidth="1"/>
+    <col min="93" max="93" width="16.5" customWidth="1"/>
+    <col min="94" max="94" width="23.125" customWidth="1"/>
+    <col min="95" max="95" width="7.625" customWidth="1"/>
+    <col min="96" max="96" width="18.625" customWidth="1"/>
+    <col min="97" max="97" width="10.75" customWidth="1"/>
+    <col min="98" max="98" width="14.125" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.4444444444444" customWidth="1"/>
+    <col min="100" max="100" width="16.5" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.66666666666667" customWidth="1"/>
-    <col min="104" max="104" width="16.4444444444444" customWidth="1"/>
-    <col min="105" max="105" width="14.1111111111111" customWidth="1"/>
-    <col min="106" max="106" width="11.8888888888889" customWidth="1"/>
-    <col min="107" max="108" width="15.2222222222222" customWidth="1"/>
-    <col min="109" max="109" width="9.66666666666667" customWidth="1"/>
+    <col min="103" max="103" width="9.625" customWidth="1"/>
+    <col min="104" max="104" width="16.5" customWidth="1"/>
+    <col min="105" max="105" width="14.125" customWidth="1"/>
+    <col min="106" max="106" width="11.875" customWidth="1"/>
+    <col min="107" max="108" width="15.25" customWidth="1"/>
+    <col min="109" max="109" width="9.625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.66666666666667" customWidth="1"/>
-    <col min="112" max="112" width="15.2222222222222" customWidth="1"/>
-    <col min="113" max="113" width="17.5555555555556" customWidth="1"/>
-    <col min="114" max="114" width="14.1111111111111" customWidth="1"/>
-    <col min="115" max="115" width="19.7777777777778" customWidth="1"/>
-    <col min="116" max="116" width="16.4444444444444" customWidth="1"/>
-    <col min="117" max="117" width="20.8888888888889" customWidth="1"/>
-    <col min="118" max="118" width="24.2222222222222" customWidth="1"/>
-    <col min="119" max="119" width="16.4444444444444" customWidth="1"/>
-    <col min="120" max="120" width="17.5555555555556" customWidth="1"/>
+    <col min="111" max="111" width="9.625" customWidth="1"/>
+    <col min="112" max="112" width="15.25" customWidth="1"/>
+    <col min="113" max="113" width="17.5" customWidth="1"/>
+    <col min="114" max="114" width="14.125" customWidth="1"/>
+    <col min="115" max="115" width="19.75" customWidth="1"/>
+    <col min="116" max="116" width="16.5" customWidth="1"/>
+    <col min="117" max="117" width="20.875" customWidth="1"/>
+    <col min="118" max="118" width="24.25" customWidth="1"/>
+    <col min="119" max="119" width="16.5" customWidth="1"/>
+    <col min="120" max="120" width="17.5" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.8888888888889" customWidth="1"/>
-    <col min="124" max="124" width="19.7777777777778" customWidth="1"/>
-    <col min="125" max="125" width="17.5555555555556" customWidth="1"/>
-    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
-    <col min="127" max="127" width="18.6666666666667" customWidth="1"/>
-    <col min="128" max="128" width="8.66666666666667" customWidth="1"/>
-    <col min="129" max="129" width="15.2222222222222" customWidth="1"/>
+    <col min="122" max="123" width="20.875" customWidth="1"/>
+    <col min="124" max="124" width="19.75" customWidth="1"/>
+    <col min="125" max="125" width="17.5" customWidth="1"/>
+    <col min="126" max="126" width="20.875" customWidth="1"/>
+    <col min="127" max="127" width="18.625" customWidth="1"/>
+    <col min="128" max="128" width="8.625" customWidth="1"/>
+    <col min="129" max="129" width="15.25" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="16.4444444444444" customWidth="1"/>
-    <col min="132" max="132" width="10.7777777777778" customWidth="1"/>
-    <col min="133" max="133" width="11.8888888888889" customWidth="1"/>
-    <col min="134" max="134" width="15.2222222222222" customWidth="1"/>
-    <col min="135" max="135" width="16.4444444444444" customWidth="1"/>
-    <col min="136" max="136" width="14.1111111111111" customWidth="1"/>
+    <col min="131" max="131" width="16.5" customWidth="1"/>
+    <col min="132" max="132" width="10.75" customWidth="1"/>
+    <col min="133" max="133" width="11.875" customWidth="1"/>
+    <col min="134" max="134" width="15.25" customWidth="1"/>
+    <col min="135" max="135" width="16.5" customWidth="1"/>
+    <col min="136" max="136" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:136">
+    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -4909,21 +4313,21 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:135">
+    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>535</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>535</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>48</v>
@@ -4974,16 +4378,16 @@
         <v>205</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>47</v>
+        <v>536</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>295</v>
+        <v>537</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>70</v>
@@ -5028,10 +4432,10 @@
         <v>239</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>195</v>
+        <v>538</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>177</v>
@@ -5058,7 +4462,7 @@
         <v>62</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BA2" s="2" t="s">
         <v>48</v>
@@ -5088,10 +4492,10 @@
         <v>48</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>201</v>
+        <v>539</v>
       </c>
       <c r="BQ2" s="2" t="s">
         <v>48</v>
@@ -5127,7 +4531,7 @@
         <v>62</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>299</v>
+        <v>62</v>
       </c>
       <c r="CE2" s="2" t="s">
         <v>62</v>
@@ -5160,7 +4564,7 @@
         <v>48</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="DC2" s="2" t="s">
         <v>62</v>
@@ -5169,7 +4573,7 @@
         <v>62</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="DF2" s="2" t="s">
         <v>200</v>
@@ -5240,22 +4644,28 @@
       <c r="EE2" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="EG2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="EI2" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:135">
+    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>301</v>
+        <v>540</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>535</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>535</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>48</v>
@@ -5306,19 +4716,19 @@
         <v>205</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>47</v>
+        <v>536</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>303</v>
+        <v>541</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>208</v>
@@ -5360,10 +4770,10 @@
         <v>216</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>195</v>
+        <v>538</v>
       </c>
       <c r="AR3" s="2" t="s">
         <v>177</v>
@@ -5390,7 +4800,7 @@
         <v>62</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BA3" s="2" t="s">
         <v>48</v>
@@ -5420,10 +4830,10 @@
         <v>48</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BP3" s="2" t="s">
-        <v>201</v>
+        <v>539</v>
       </c>
       <c r="BQ3" s="2" t="s">
         <v>48</v>
@@ -5459,7 +4869,7 @@
         <v>62</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>299</v>
+        <v>62</v>
       </c>
       <c r="CE3" s="2" t="s">
         <v>62</v>
@@ -5492,7 +4902,7 @@
         <v>48</v>
       </c>
       <c r="DA3" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="DC3" s="2" t="s">
         <v>62</v>
@@ -5501,7 +4911,7 @@
         <v>62</v>
       </c>
       <c r="DE3" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="DF3" s="2" t="s">
         <v>200</v>
@@ -5572,307 +4982,1166 @@
       <c r="EE3" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="EG3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="EI3" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AD3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="7.66666666666667" customWidth="1"/>
-    <col min="6" max="7" width="11.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="7.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="6.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="8.66666666666667" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="9.66666666666667" customWidth="1"/>
-    <col min="15" max="16" width="11.8888888888889" customWidth="1"/>
-    <col min="17" max="17" width="14.1111111111111" customWidth="1"/>
-    <col min="18" max="19" width="7.66666666666667" customWidth="1"/>
-    <col min="20" max="21" width="14.1111111111111" customWidth="1"/>
-    <col min="22" max="22" width="6.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="18.6666666666667" customWidth="1"/>
-    <col min="24" max="24" width="23.1111111111111" customWidth="1"/>
-    <col min="25" max="25" width="16.4444444444444" customWidth="1"/>
-    <col min="26" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="11.8888888888889" customWidth="1"/>
-    <col min="29" max="30" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
+    <col min="17" max="18" width="7.625" customWidth="1"/>
+    <col min="19" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="6.625" customWidth="1"/>
+    <col min="22" max="22" width="18.625" customWidth="1"/>
+    <col min="23" max="23" width="23.125" customWidth="1"/>
+    <col min="24" max="24" width="16.5" customWidth="1"/>
+    <col min="25" max="26" width="13" customWidth="1"/>
+    <col min="27" max="27" width="11.875" customWidth="1"/>
+    <col min="28" max="29" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:30">
+    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CV1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>311</v>
+      <c r="CY1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="DX1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="DY1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="EE1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="EG1" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="EH1" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="EI1" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:30">
+    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>534</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>292</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="CT2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="CV2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="DD2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="DE2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="DF2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="DG2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DI2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="DJ2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="DL2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="DM2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="DN2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="DO2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="DP2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="DQ2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="DR2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="DS2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="DV2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="DY2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="ED2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EE2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EG2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="EI2" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="T3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="W3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="AA3" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:30">
-      <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BV3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BY3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BZ3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CG3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="CR3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="CT3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="CV3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="DA3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DC3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="DD3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="DE3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="DF3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="DG3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DI3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>48</v>
+      <c r="DJ3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="DK3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="DL3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="DM3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="DN3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="DO3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="DP3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DQ3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DR3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DS3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="DT3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="DU3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="DV3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="DW3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="DX3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="DY3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EA3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="EC3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="ED3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EE3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EG3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="EI3" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:CE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:83">
+    <row r="1" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5898,43 +6167,43 @@
         <v>80</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>74</v>
@@ -5949,181 +6218,190 @@
         <v>8</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="BR1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="BS1" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="CC1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="BV1" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>381</v>
+      <c r="CF1" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:83">
+    <row r="2" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -6152,10 +6430,10 @@
         <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>48</v>
+        <v>301</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>63</v>
@@ -6164,10 +6442,10 @@
         <v>62</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>48</v>
@@ -6203,7 +6481,7 @@
         <v>63</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>48</v>
@@ -6247,6 +6525,9 @@
       <c r="AO2" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="AP2" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="AQ2" s="2" t="s">
         <v>48</v>
       </c>
@@ -6320,7 +6601,7 @@
         <v>48</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="BP2" s="2" t="s">
         <v>63</v>
@@ -6370,25 +6651,33 @@
       <c r="CE2" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="CF2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BX4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:76">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
@@ -6417,43 +6706,43 @@
         <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>74</v>
@@ -6468,159 +6757,159 @@
         <v>8</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BN1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>381</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:76">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>530</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>48</v>
@@ -6653,19 +6942,19 @@
         <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>48</v>
@@ -6698,10 +6987,10 @@
         <v>54</v>
       </c>
       <c r="AA2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>48</v>
@@ -6803,10 +7092,10 @@
         <v>48</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>62</v>
@@ -6847,27 +7136,35 @@
       <c r="BX2" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="BY2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:146">
+    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -6875,94 +7172,94 @@
         <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>286</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>251</v>
@@ -6971,67 +7268,67 @@
         <v>252</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>147</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>261</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>259</v>
@@ -7040,43 +7337,43 @@
         <v>260</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>132</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>284</v>
@@ -7088,237 +7385,237 @@
         <v>285</v>
       </c>
       <c r="BV1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="EC1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="EB1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="EG1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="EJ1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:146">
-      <c r="A2" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -7327,19 +7624,19 @@
         <v>178</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>62</v>
@@ -7369,7 +7666,7 @@
         <v>63</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>62</v>
@@ -7378,13 +7675,13 @@
         <v>62</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>66</v>
@@ -7396,7 +7693,7 @@
         <v>48</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>59</v>
@@ -7405,7 +7702,7 @@
         <v>63</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>62</v>
@@ -7414,7 +7711,7 @@
         <v>66</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>48</v>
@@ -7426,7 +7723,7 @@
         <v>62</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>62</v>
@@ -7435,7 +7732,7 @@
         <v>66</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>59</v>
@@ -7447,10 +7744,10 @@
         <v>48</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>66</v>
@@ -7492,7 +7789,7 @@
         <v>200</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="BR2" s="1" t="s">
         <v>200</v>
@@ -7555,7 +7852,7 @@
         <v>200</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>62</v>
@@ -7564,26 +7861,26 @@
         <v>48</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="CR2" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="CV2" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="CS2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CU2" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="CW2" s="1" t="s">
         <v>48</v>
       </c>
@@ -7642,7 +7939,7 @@
         <v>62</v>
       </c>
       <c r="DP2" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="DR2" s="1" t="s">
         <v>62</v>
@@ -7714,7 +8011,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:146">
+    <row r="3" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>177</v>
       </c>
@@ -7722,7 +8019,7 @@
         <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>177</v>
@@ -7734,22 +8031,22 @@
         <v>178</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>62</v>
@@ -7776,7 +8073,7 @@
         <v>63</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>62</v>
@@ -7785,13 +8082,13 @@
         <v>62</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>66</v>
@@ -7803,7 +8100,7 @@
         <v>48</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>59</v>
@@ -7812,7 +8109,7 @@
         <v>63</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>62</v>
@@ -7821,7 +8118,7 @@
         <v>66</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>48</v>
@@ -7833,7 +8130,7 @@
         <v>62</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>62</v>
@@ -7851,10 +8148,10 @@
         <v>48</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="BD3" s="1" t="s">
         <v>66</v>
@@ -7971,10 +8268,10 @@
         <v>177</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="CS3" s="1" t="s">
         <v>62</v>
@@ -7983,10 +8280,10 @@
         <v>62</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="CW3" s="1" t="s">
         <v>48</v>
@@ -8118,25 +8415,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
+    <row r="4" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DV5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:126">
+    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
@@ -8147,94 +8443,94 @@
         <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>286</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>251</v>
@@ -8243,67 +8539,67 @@
         <v>252</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>147</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>261</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>259</v>
@@ -8312,82 +8608,82 @@
         <v>260</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>132</v>
       </c>
       <c r="BM1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="CA1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="BN1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="BU1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="CF1" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="CG1" s="1" t="s">
         <v>284</v>
@@ -8399,138 +8695,138 @@
         <v>285</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="CQ1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="CW1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="CR1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="DA1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="CW1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="DG1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DI1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="DH1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="DM1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>506</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:126">
+    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>59</v>
@@ -8539,19 +8835,19 @@
         <v>178</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>62</v>
@@ -8581,7 +8877,7 @@
         <v>63</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>62</v>
@@ -8590,13 +8886,13 @@
         <v>62</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>66</v>
@@ -8608,7 +8904,7 @@
         <v>48</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>59</v>
@@ -8617,7 +8913,7 @@
         <v>63</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>62</v>
@@ -8626,7 +8922,7 @@
         <v>66</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>48</v>
@@ -8638,7 +8934,7 @@
         <v>62</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>62</v>
@@ -8647,7 +8943,7 @@
         <v>66</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="AZ2" s="1" t="s">
         <v>59</v>
@@ -8659,10 +8955,10 @@
         <v>48</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>66</v>
@@ -8713,7 +9009,7 @@
         <v>200</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>200</v>
@@ -8764,25 +9060,25 @@
         <v>200</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="CR2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>62</v>
@@ -8863,7 +9159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:126">
+    <row r="3" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -8874,7 +9170,7 @@
         <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>177</v>
@@ -8886,22 +9182,22 @@
         <v>178</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>62</v>
@@ -8928,7 +9224,7 @@
         <v>63</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>62</v>
@@ -8937,13 +9233,13 @@
         <v>62</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>66</v>
@@ -8955,7 +9251,7 @@
         <v>48</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>59</v>
@@ -8964,7 +9260,7 @@
         <v>63</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>62</v>
@@ -8973,7 +9269,7 @@
         <v>66</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>48</v>
@@ -8985,10 +9281,10 @@
         <v>62</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="AV3" s="1" t="s">
         <v>66</v>
@@ -9003,10 +9299,10 @@
         <v>48</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="BE3" s="1" t="s">
         <v>66</v>
@@ -9117,16 +9413,16 @@
         <v>177</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="CR3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="CT3" s="1" t="s">
         <v>62</v>
@@ -9210,10 +9506,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
+    <row r="4" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/用例数据/沪A/上海ETF发行/T日/测试结果.xlsx
+++ b/用例数据/沪A/上海ETF发行/T日/测试结果.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="544">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -1652,6 +1652,14 @@
   </si>
   <si>
     <t>-466421.600</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3769,8 +3777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="BZ9" sqref="BZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4522,7 +4530,7 @@
         <v>59</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>48</v>
+        <v>542</v>
       </c>
       <c r="CA2" s="2" t="s">
         <v>62</v>
@@ -4860,7 +4868,7 @@
         <v>59</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>48</v>
+        <v>543</v>
       </c>
       <c r="CA3" s="2" t="s">
         <v>62</v>

--- a/用例数据/沪A/上海ETF发行/T日/测试结果.xlsx
+++ b/用例数据/沪A/上海ETF发行/T日/测试结果.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="545">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -1659,6 +1659,10 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2023,51 +2027,51 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
-    <col min="15" max="15" width="15.25" customWidth="1"/>
-    <col min="16" max="16" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
     <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="7.625" customWidth="1"/>
-    <col min="20" max="20" width="10.75" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="19.75" customWidth="1"/>
-    <col min="23" max="24" width="14.125" customWidth="1"/>
-    <col min="25" max="25" width="9.625" customWidth="1"/>
-    <col min="26" max="26" width="23.125" customWidth="1"/>
-    <col min="27" max="27" width="10.75" customWidth="1"/>
-    <col min="28" max="28" width="15.25" customWidth="1"/>
-    <col min="29" max="30" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="15.21875" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" customWidth="1"/>
+    <col min="22" max="22" width="19.77734375" customWidth="1"/>
+    <col min="23" max="24" width="14.109375" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="26" max="26" width="23.109375" customWidth="1"/>
+    <col min="27" max="27" width="10.77734375" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" customWidth="1"/>
+    <col min="29" max="30" width="14.109375" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="10.75" customWidth="1"/>
-    <col min="33" max="33" width="14.125" customWidth="1"/>
-    <col min="34" max="34" width="11.875" customWidth="1"/>
-    <col min="35" max="35" width="14.125" customWidth="1"/>
-    <col min="36" max="36" width="8.625" customWidth="1"/>
-    <col min="37" max="37" width="15.25" customWidth="1"/>
-    <col min="38" max="38" width="10.75" customWidth="1"/>
-    <col min="39" max="42" width="11.875" customWidth="1"/>
-    <col min="43" max="43" width="9.625" customWidth="1"/>
-    <col min="44" max="44" width="7.625" customWidth="1"/>
-    <col min="45" max="45" width="14.125" customWidth="1"/>
-    <col min="46" max="46" width="10.75" customWidth="1"/>
+    <col min="32" max="32" width="10.77734375" customWidth="1"/>
+    <col min="33" max="33" width="14.109375" customWidth="1"/>
+    <col min="34" max="34" width="11.88671875" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="15.21875" customWidth="1"/>
+    <col min="38" max="38" width="10.77734375" customWidth="1"/>
+    <col min="39" max="42" width="11.88671875" customWidth="1"/>
+    <col min="43" max="43" width="9.6640625" customWidth="1"/>
+    <col min="44" max="44" width="7.6640625" customWidth="1"/>
+    <col min="45" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="46" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +2211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -2326,7 +2330,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -2460,129 +2464,129 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="11" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="11" width="11.88671875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="10.75" customWidth="1"/>
-    <col min="14" max="14" width="7.625" customWidth="1"/>
-    <col min="15" max="16" width="8.625" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="16.5" customWidth="1"/>
-    <col min="19" max="19" width="9.625" customWidth="1"/>
-    <col min="20" max="20" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="10.75" customWidth="1"/>
-    <col min="23" max="23" width="23.125" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="25" width="15.25" customWidth="1"/>
-    <col min="26" max="27" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
+    <col min="23" max="23" width="23.109375" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="15.21875" customWidth="1"/>
+    <col min="26" max="27" width="14.109375" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="10.75" customWidth="1"/>
-    <col min="30" max="30" width="14.125" customWidth="1"/>
-    <col min="31" max="31" width="11.875" customWidth="1"/>
-    <col min="32" max="32" width="14.125" customWidth="1"/>
-    <col min="33" max="33" width="9.625" customWidth="1"/>
+    <col min="29" max="29" width="10.77734375" customWidth="1"/>
+    <col min="30" max="30" width="14.109375" customWidth="1"/>
+    <col min="31" max="31" width="11.88671875" customWidth="1"/>
+    <col min="32" max="32" width="14.109375" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="9.625" customWidth="1"/>
-    <col min="36" max="36" width="14.125" customWidth="1"/>
-    <col min="37" max="37" width="26.5" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" customWidth="1"/>
+    <col min="36" max="36" width="14.109375" customWidth="1"/>
+    <col min="37" max="37" width="26.44140625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="9.625" customWidth="1"/>
-    <col min="40" max="40" width="8.625" customWidth="1"/>
-    <col min="41" max="41" width="9.625" customWidth="1"/>
-    <col min="42" max="42" width="14.125" customWidth="1"/>
-    <col min="43" max="43" width="9.625" customWidth="1"/>
-    <col min="44" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="46" width="17.5" customWidth="1"/>
-    <col min="47" max="47" width="7.625" customWidth="1"/>
-    <col min="48" max="48" width="17.5" customWidth="1"/>
-    <col min="49" max="49" width="20.875" customWidth="1"/>
-    <col min="50" max="50" width="15.25" customWidth="1"/>
-    <col min="51" max="51" width="14.125" customWidth="1"/>
-    <col min="52" max="52" width="7.625" customWidth="1"/>
-    <col min="53" max="53" width="17.5" customWidth="1"/>
-    <col min="54" max="54" width="19.75" customWidth="1"/>
-    <col min="55" max="55" width="11.875" customWidth="1"/>
-    <col min="56" max="56" width="8.625" customWidth="1"/>
-    <col min="57" max="57" width="16.5" customWidth="1"/>
-    <col min="58" max="58" width="14.125" customWidth="1"/>
-    <col min="59" max="59" width="17.5" customWidth="1"/>
-    <col min="60" max="60" width="16.5" customWidth="1"/>
+    <col min="39" max="39" width="9.6640625" customWidth="1"/>
+    <col min="40" max="40" width="8.6640625" customWidth="1"/>
+    <col min="41" max="41" width="9.6640625" customWidth="1"/>
+    <col min="42" max="42" width="14.109375" customWidth="1"/>
+    <col min="43" max="43" width="9.6640625" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="46" width="17.44140625" customWidth="1"/>
+    <col min="47" max="47" width="7.6640625" customWidth="1"/>
+    <col min="48" max="48" width="17.44140625" customWidth="1"/>
+    <col min="49" max="49" width="20.88671875" customWidth="1"/>
+    <col min="50" max="50" width="15.21875" customWidth="1"/>
+    <col min="51" max="51" width="14.109375" customWidth="1"/>
+    <col min="52" max="52" width="7.6640625" customWidth="1"/>
+    <col min="53" max="53" width="17.44140625" customWidth="1"/>
+    <col min="54" max="54" width="19.77734375" customWidth="1"/>
+    <col min="55" max="55" width="11.88671875" customWidth="1"/>
+    <col min="56" max="56" width="8.6640625" customWidth="1"/>
+    <col min="57" max="57" width="16.44140625" customWidth="1"/>
+    <col min="58" max="58" width="14.109375" customWidth="1"/>
+    <col min="59" max="59" width="17.44140625" customWidth="1"/>
+    <col min="60" max="60" width="16.44140625" customWidth="1"/>
     <col min="61" max="61" width="13" customWidth="1"/>
-    <col min="62" max="62" width="18.625" customWidth="1"/>
-    <col min="63" max="63" width="6.625" customWidth="1"/>
-    <col min="64" max="65" width="15.25" customWidth="1"/>
-    <col min="66" max="66" width="11.875" customWidth="1"/>
-    <col min="67" max="67" width="17.5" customWidth="1"/>
-    <col min="68" max="68" width="20.875" customWidth="1"/>
-    <col min="69" max="69" width="16.5" customWidth="1"/>
+    <col min="62" max="62" width="18.6640625" customWidth="1"/>
+    <col min="63" max="63" width="6.6640625" customWidth="1"/>
+    <col min="64" max="65" width="15.21875" customWidth="1"/>
+    <col min="66" max="66" width="11.88671875" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" customWidth="1"/>
+    <col min="68" max="68" width="20.88671875" customWidth="1"/>
+    <col min="69" max="69" width="16.44140625" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.875" customWidth="1"/>
-    <col min="72" max="72" width="8.625" customWidth="1"/>
-    <col min="73" max="73" width="10.75" customWidth="1"/>
-    <col min="74" max="74" width="15.25" customWidth="1"/>
-    <col min="75" max="75" width="11.875" customWidth="1"/>
-    <col min="76" max="76" width="10.75" customWidth="1"/>
-    <col min="77" max="78" width="17.5" customWidth="1"/>
-    <col min="79" max="79" width="16.5" customWidth="1"/>
-    <col min="80" max="80" width="11.875" customWidth="1"/>
-    <col min="81" max="81" width="18.625" customWidth="1"/>
-    <col min="82" max="82" width="19.75" customWidth="1"/>
+    <col min="71" max="71" width="11.88671875" customWidth="1"/>
+    <col min="72" max="72" width="8.6640625" customWidth="1"/>
+    <col min="73" max="73" width="10.77734375" customWidth="1"/>
+    <col min="74" max="74" width="15.21875" customWidth="1"/>
+    <col min="75" max="75" width="11.88671875" customWidth="1"/>
+    <col min="76" max="76" width="10.77734375" customWidth="1"/>
+    <col min="77" max="78" width="17.44140625" customWidth="1"/>
+    <col min="79" max="79" width="16.44140625" customWidth="1"/>
+    <col min="80" max="80" width="11.88671875" customWidth="1"/>
+    <col min="81" max="81" width="18.6640625" customWidth="1"/>
+    <col min="82" max="82" width="19.77734375" customWidth="1"/>
     <col min="83" max="83" width="13" customWidth="1"/>
-    <col min="84" max="84" width="14.125" customWidth="1"/>
+    <col min="84" max="84" width="14.109375" customWidth="1"/>
     <col min="85" max="86" width="13" customWidth="1"/>
-    <col min="87" max="87" width="16.5" customWidth="1"/>
-    <col min="88" max="88" width="17.5" customWidth="1"/>
-    <col min="89" max="89" width="9.625" customWidth="1"/>
-    <col min="90" max="90" width="19.75" customWidth="1"/>
-    <col min="91" max="91" width="16.5" customWidth="1"/>
-    <col min="92" max="92" width="20.875" customWidth="1"/>
-    <col min="93" max="93" width="24.25" customWidth="1"/>
-    <col min="94" max="94" width="16.5" customWidth="1"/>
-    <col min="95" max="95" width="17.5" customWidth="1"/>
+    <col min="87" max="87" width="16.44140625" customWidth="1"/>
+    <col min="88" max="88" width="17.44140625" customWidth="1"/>
+    <col min="89" max="89" width="9.6640625" customWidth="1"/>
+    <col min="90" max="90" width="19.77734375" customWidth="1"/>
+    <col min="91" max="91" width="16.44140625" customWidth="1"/>
+    <col min="92" max="92" width="20.88671875" customWidth="1"/>
+    <col min="93" max="93" width="24.21875" customWidth="1"/>
+    <col min="94" max="94" width="16.44140625" customWidth="1"/>
+    <col min="95" max="95" width="17.44140625" customWidth="1"/>
     <col min="96" max="96" width="22" customWidth="1"/>
-    <col min="97" max="98" width="20.875" customWidth="1"/>
-    <col min="99" max="99" width="19.75" customWidth="1"/>
-    <col min="100" max="100" width="17.5" customWidth="1"/>
-    <col min="101" max="101" width="20.875" customWidth="1"/>
-    <col min="102" max="102" width="18.625" customWidth="1"/>
-    <col min="103" max="103" width="8.625" customWidth="1"/>
-    <col min="104" max="104" width="15.25" customWidth="1"/>
-    <col min="105" max="105" width="10.75" customWidth="1"/>
-    <col min="106" max="108" width="11.875" customWidth="1"/>
+    <col min="97" max="98" width="20.88671875" customWidth="1"/>
+    <col min="99" max="99" width="19.77734375" customWidth="1"/>
+    <col min="100" max="100" width="17.44140625" customWidth="1"/>
+    <col min="101" max="101" width="20.88671875" customWidth="1"/>
+    <col min="102" max="102" width="18.6640625" customWidth="1"/>
+    <col min="103" max="103" width="8.6640625" customWidth="1"/>
+    <col min="104" max="104" width="15.21875" customWidth="1"/>
+    <col min="105" max="105" width="10.77734375" customWidth="1"/>
+    <col min="106" max="108" width="11.88671875" customWidth="1"/>
     <col min="109" max="109" width="13" customWidth="1"/>
-    <col min="110" max="110" width="16.5" customWidth="1"/>
-    <col min="111" max="111" width="15.25" customWidth="1"/>
-    <col min="112" max="113" width="17.5" customWidth="1"/>
-    <col min="114" max="114" width="16.5" customWidth="1"/>
+    <col min="110" max="110" width="16.44140625" customWidth="1"/>
+    <col min="111" max="111" width="15.21875" customWidth="1"/>
+    <col min="112" max="113" width="17.44140625" customWidth="1"/>
+    <col min="114" max="114" width="16.44140625" customWidth="1"/>
     <col min="115" max="116" width="13" customWidth="1"/>
-    <col min="117" max="117" width="11.875" customWidth="1"/>
+    <col min="117" max="117" width="11.88671875" customWidth="1"/>
     <col min="118" max="119" width="13" customWidth="1"/>
-    <col min="120" max="120" width="15.25" customWidth="1"/>
-    <col min="121" max="122" width="17.5" customWidth="1"/>
-    <col min="123" max="123" width="15.25" customWidth="1"/>
-    <col min="124" max="125" width="17.5" customWidth="1"/>
-    <col min="126" max="126" width="14.125" customWidth="1"/>
-    <col min="127" max="128" width="16.5" customWidth="1"/>
-    <col min="129" max="129" width="11.875" customWidth="1"/>
-    <col min="130" max="131" width="14.125" customWidth="1"/>
-    <col min="132" max="132" width="15.25" customWidth="1"/>
-    <col min="133" max="134" width="17.5" customWidth="1"/>
+    <col min="120" max="120" width="15.21875" customWidth="1"/>
+    <col min="121" max="122" width="17.44140625" customWidth="1"/>
+    <col min="123" max="123" width="15.21875" customWidth="1"/>
+    <col min="124" max="125" width="17.44140625" customWidth="1"/>
+    <col min="126" max="126" width="14.109375" customWidth="1"/>
+    <col min="127" max="128" width="16.44140625" customWidth="1"/>
+    <col min="129" max="129" width="11.88671875" customWidth="1"/>
+    <col min="130" max="131" width="14.109375" customWidth="1"/>
+    <col min="132" max="132" width="15.21875" customWidth="1"/>
+    <col min="133" max="134" width="17.44140625" customWidth="1"/>
     <col min="135" max="135" width="13" customWidth="1"/>
-    <col min="136" max="137" width="15.25" customWidth="1"/>
-    <col min="138" max="138" width="19.75" customWidth="1"/>
-    <col min="139" max="139" width="7.625" customWidth="1"/>
+    <col min="136" max="137" width="15.21875" customWidth="1"/>
+    <col min="138" max="138" width="19.77734375" customWidth="1"/>
+    <col min="139" max="139" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -3001,7 +3005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>177</v>
       </c>
@@ -3384,7 +3388,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>177</v>
       </c>
@@ -3777,141 +3781,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="BZ9" sqref="BZ9"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AZ7" sqref="AZ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="19.75" customWidth="1"/>
-    <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="7.625" customWidth="1"/>
-    <col min="15" max="16" width="8.625" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
-    <col min="19" max="19" width="6.625" customWidth="1"/>
-    <col min="20" max="20" width="7.625" customWidth="1"/>
-    <col min="21" max="21" width="10.75" customWidth="1"/>
-    <col min="22" max="22" width="9.625" customWidth="1"/>
-    <col min="23" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="16.5" customWidth="1"/>
-    <col min="25" max="25" width="14.125" customWidth="1"/>
-    <col min="26" max="26" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
+    <col min="26" max="26" width="11.88671875" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="8.625" customWidth="1"/>
-    <col min="29" max="29" width="9.625" customWidth="1"/>
-    <col min="30" max="30" width="23.125" customWidth="1"/>
-    <col min="31" max="31" width="10.75" customWidth="1"/>
-    <col min="32" max="32" width="15.25" customWidth="1"/>
-    <col min="33" max="34" width="14.125" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="23.109375" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="33" max="34" width="14.109375" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.625" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="14.125" customWidth="1"/>
-    <col min="41" max="41" width="11.875" customWidth="1"/>
-    <col min="42" max="43" width="9.625" customWidth="1"/>
-    <col min="44" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="45" width="19.75" customWidth="1"/>
-    <col min="46" max="46" width="9.625" customWidth="1"/>
+    <col min="39" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="41" width="11.88671875" customWidth="1"/>
+    <col min="42" max="43" width="9.6640625" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="19.77734375" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.125" customWidth="1"/>
-    <col min="49" max="49" width="8.625" customWidth="1"/>
-    <col min="50" max="50" width="17.5" customWidth="1"/>
-    <col min="51" max="51" width="11.875" customWidth="1"/>
-    <col min="52" max="52" width="8.625" customWidth="1"/>
-    <col min="53" max="53" width="9.625" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" customWidth="1"/>
+    <col min="49" max="49" width="8.6640625" customWidth="1"/>
+    <col min="50" max="50" width="17.44140625" customWidth="1"/>
+    <col min="51" max="51" width="11.88671875" customWidth="1"/>
+    <col min="52" max="52" width="8.6640625" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.5" customWidth="1"/>
+    <col min="55" max="55" width="16.44140625" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.5" customWidth="1"/>
-    <col min="59" max="59" width="15.25" customWidth="1"/>
-    <col min="60" max="60" width="5.625" customWidth="1"/>
-    <col min="61" max="61" width="17.5" customWidth="1"/>
-    <col min="62" max="62" width="14.125" customWidth="1"/>
-    <col min="63" max="63" width="11.875" customWidth="1"/>
-    <col min="64" max="64" width="8.625" customWidth="1"/>
-    <col min="65" max="65" width="14.125" customWidth="1"/>
-    <col min="66" max="66" width="9.625" customWidth="1"/>
-    <col min="67" max="67" width="17.5" customWidth="1"/>
-    <col min="68" max="68" width="16.5" customWidth="1"/>
-    <col min="69" max="69" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="5.6640625" customWidth="1"/>
+    <col min="61" max="61" width="17.44140625" customWidth="1"/>
+    <col min="62" max="62" width="14.109375" customWidth="1"/>
+    <col min="63" max="63" width="11.88671875" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="65" width="14.109375" customWidth="1"/>
+    <col min="66" max="66" width="9.6640625" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" customWidth="1"/>
+    <col min="68" max="68" width="16.44140625" customWidth="1"/>
+    <col min="69" max="69" width="11.88671875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.875" customWidth="1"/>
-    <col min="72" max="72" width="15.25" customWidth="1"/>
-    <col min="73" max="73" width="11.875" customWidth="1"/>
+    <col min="71" max="71" width="11.88671875" customWidth="1"/>
+    <col min="72" max="72" width="15.21875" customWidth="1"/>
+    <col min="73" max="73" width="11.88671875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5" customWidth="1"/>
-    <col min="76" max="76" width="20.875" customWidth="1"/>
-    <col min="77" max="77" width="16.5" customWidth="1"/>
+    <col min="75" max="75" width="17.44140625" customWidth="1"/>
+    <col min="76" max="76" width="20.88671875" customWidth="1"/>
+    <col min="77" max="77" width="16.44140625" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.875" customWidth="1"/>
-    <col min="80" max="80" width="10.75" customWidth="1"/>
-    <col min="81" max="81" width="11.875" customWidth="1"/>
-    <col min="82" max="82" width="9.625" customWidth="1"/>
-    <col min="83" max="83" width="7.625" customWidth="1"/>
-    <col min="84" max="85" width="17.5" customWidth="1"/>
-    <col min="86" max="86" width="16.5" customWidth="1"/>
-    <col min="87" max="87" width="11.875" customWidth="1"/>
-    <col min="88" max="88" width="14.125" customWidth="1"/>
-    <col min="89" max="89" width="11.875" customWidth="1"/>
-    <col min="90" max="90" width="10.75" customWidth="1"/>
-    <col min="91" max="91" width="11.875" customWidth="1"/>
-    <col min="92" max="92" width="19.75" customWidth="1"/>
-    <col min="93" max="93" width="16.5" customWidth="1"/>
-    <col min="94" max="94" width="23.125" customWidth="1"/>
-    <col min="95" max="95" width="7.625" customWidth="1"/>
-    <col min="96" max="96" width="18.625" customWidth="1"/>
-    <col min="97" max="97" width="10.75" customWidth="1"/>
-    <col min="98" max="98" width="14.125" customWidth="1"/>
+    <col min="79" max="79" width="11.88671875" customWidth="1"/>
+    <col min="80" max="80" width="10.77734375" customWidth="1"/>
+    <col min="81" max="81" width="11.88671875" customWidth="1"/>
+    <col min="82" max="82" width="9.6640625" customWidth="1"/>
+    <col min="83" max="83" width="7.6640625" customWidth="1"/>
+    <col min="84" max="85" width="17.44140625" customWidth="1"/>
+    <col min="86" max="86" width="16.44140625" customWidth="1"/>
+    <col min="87" max="87" width="11.88671875" customWidth="1"/>
+    <col min="88" max="88" width="14.109375" customWidth="1"/>
+    <col min="89" max="89" width="11.88671875" customWidth="1"/>
+    <col min="90" max="90" width="10.77734375" customWidth="1"/>
+    <col min="91" max="91" width="11.88671875" customWidth="1"/>
+    <col min="92" max="92" width="19.77734375" customWidth="1"/>
+    <col min="93" max="93" width="16.44140625" customWidth="1"/>
+    <col min="94" max="94" width="23.109375" customWidth="1"/>
+    <col min="95" max="95" width="7.6640625" customWidth="1"/>
+    <col min="96" max="96" width="18.6640625" customWidth="1"/>
+    <col min="97" max="97" width="10.77734375" customWidth="1"/>
+    <col min="98" max="98" width="14.109375" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.5" customWidth="1"/>
+    <col min="100" max="100" width="16.44140625" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.625" customWidth="1"/>
-    <col min="104" max="104" width="16.5" customWidth="1"/>
-    <col min="105" max="105" width="14.125" customWidth="1"/>
-    <col min="106" max="106" width="11.875" customWidth="1"/>
-    <col min="107" max="108" width="15.25" customWidth="1"/>
-    <col min="109" max="109" width="9.625" customWidth="1"/>
+    <col min="103" max="103" width="9.6640625" customWidth="1"/>
+    <col min="104" max="104" width="16.44140625" customWidth="1"/>
+    <col min="105" max="105" width="14.109375" customWidth="1"/>
+    <col min="106" max="106" width="11.88671875" customWidth="1"/>
+    <col min="107" max="108" width="15.21875" customWidth="1"/>
+    <col min="109" max="109" width="9.6640625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.625" customWidth="1"/>
-    <col min="112" max="112" width="15.25" customWidth="1"/>
-    <col min="113" max="113" width="17.5" customWidth="1"/>
-    <col min="114" max="114" width="14.125" customWidth="1"/>
-    <col min="115" max="115" width="19.75" customWidth="1"/>
-    <col min="116" max="116" width="16.5" customWidth="1"/>
-    <col min="117" max="117" width="20.875" customWidth="1"/>
-    <col min="118" max="118" width="24.25" customWidth="1"/>
-    <col min="119" max="119" width="16.5" customWidth="1"/>
-    <col min="120" max="120" width="17.5" customWidth="1"/>
+    <col min="111" max="111" width="9.6640625" customWidth="1"/>
+    <col min="112" max="112" width="15.21875" customWidth="1"/>
+    <col min="113" max="113" width="17.44140625" customWidth="1"/>
+    <col min="114" max="114" width="14.109375" customWidth="1"/>
+    <col min="115" max="115" width="19.77734375" customWidth="1"/>
+    <col min="116" max="116" width="16.44140625" customWidth="1"/>
+    <col min="117" max="117" width="20.88671875" customWidth="1"/>
+    <col min="118" max="118" width="24.21875" customWidth="1"/>
+    <col min="119" max="119" width="16.44140625" customWidth="1"/>
+    <col min="120" max="120" width="17.44140625" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.875" customWidth="1"/>
-    <col min="124" max="124" width="19.75" customWidth="1"/>
-    <col min="125" max="125" width="17.5" customWidth="1"/>
-    <col min="126" max="126" width="20.875" customWidth="1"/>
-    <col min="127" max="127" width="18.625" customWidth="1"/>
-    <col min="128" max="128" width="8.625" customWidth="1"/>
-    <col min="129" max="129" width="15.25" customWidth="1"/>
+    <col min="122" max="123" width="20.88671875" customWidth="1"/>
+    <col min="124" max="124" width="19.77734375" customWidth="1"/>
+    <col min="125" max="125" width="17.44140625" customWidth="1"/>
+    <col min="126" max="126" width="20.88671875" customWidth="1"/>
+    <col min="127" max="127" width="18.6640625" customWidth="1"/>
+    <col min="128" max="128" width="8.6640625" customWidth="1"/>
+    <col min="129" max="129" width="15.21875" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="16.5" customWidth="1"/>
-    <col min="132" max="132" width="10.75" customWidth="1"/>
-    <col min="133" max="133" width="11.875" customWidth="1"/>
-    <col min="134" max="134" width="15.25" customWidth="1"/>
-    <col min="135" max="135" width="16.5" customWidth="1"/>
-    <col min="136" max="136" width="14.125" customWidth="1"/>
+    <col min="131" max="131" width="16.44140625" customWidth="1"/>
+    <col min="132" max="132" width="10.77734375" customWidth="1"/>
+    <col min="133" max="133" width="11.88671875" customWidth="1"/>
+    <col min="134" max="134" width="15.21875" customWidth="1"/>
+    <col min="135" max="135" width="16.44140625" customWidth="1"/>
+    <col min="136" max="136" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -4321,7 +4325,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>534</v>
       </c>
@@ -4443,7 +4447,7 @@
         <v>294</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>177</v>
@@ -4659,7 +4663,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>540</v>
       </c>
@@ -4781,7 +4785,7 @@
         <v>294</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AR3" s="2" t="s">
         <v>177</v>
@@ -5011,34 +5015,34 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="6.625" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="14" max="15" width="11.875" customWidth="1"/>
-    <col min="16" max="16" width="14.125" customWidth="1"/>
-    <col min="17" max="18" width="7.625" customWidth="1"/>
-    <col min="19" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="6.625" customWidth="1"/>
-    <col min="22" max="22" width="18.625" customWidth="1"/>
-    <col min="23" max="23" width="23.125" customWidth="1"/>
-    <col min="24" max="24" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
+    <col min="17" max="18" width="7.6640625" customWidth="1"/>
+    <col min="19" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1"/>
+    <col min="23" max="23" width="23.109375" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" customWidth="1"/>
     <col min="25" max="26" width="13" customWidth="1"/>
-    <col min="27" max="27" width="11.875" customWidth="1"/>
-    <col min="28" max="29" width="8.625" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" customWidth="1"/>
+    <col min="28" max="29" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -5457,7 +5461,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>534</v>
       </c>
@@ -5795,7 +5799,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>540</v>
       </c>
@@ -6147,9 +6151,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -6409,7 +6413,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -6683,9 +6687,9 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
@@ -6915,7 +6919,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>530</v>
       </c>
@@ -7154,8 +7158,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7170,9 +7174,9 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -7612,7 +7616,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>497</v>
       </c>
@@ -8019,7 +8023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>177</v>
       </c>
@@ -8423,7 +8427,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8438,9 +8442,9 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
@@ -8820,7 +8824,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -9167,7 +9171,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -9514,8 +9518,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪A/上海ETF发行/T日/测试结果.xlsx
+++ b/用例数据/沪A/上海ETF发行/T日/测试结果.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\沪A\上海ETF发行\T日\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828426CC-F035-49CD-9603-DA65FF168612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9420" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todaytraderslt" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="547">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -1663,13 +1664,21 @@
   </si>
   <si>
     <t>A0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510334</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000011760501</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2020,58 +2029,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="15.25" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
     <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="15.21875" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" customWidth="1"/>
-    <col min="22" max="22" width="19.77734375" customWidth="1"/>
-    <col min="23" max="24" width="14.109375" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" customWidth="1"/>
-    <col min="26" max="26" width="23.109375" customWidth="1"/>
-    <col min="27" max="27" width="10.77734375" customWidth="1"/>
-    <col min="28" max="28" width="15.21875" customWidth="1"/>
-    <col min="29" max="30" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="15.25" customWidth="1"/>
+    <col min="19" max="19" width="7.625" customWidth="1"/>
+    <col min="20" max="20" width="10.75" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="19.75" customWidth="1"/>
+    <col min="23" max="24" width="14.125" customWidth="1"/>
+    <col min="25" max="25" width="9.625" customWidth="1"/>
+    <col min="26" max="26" width="23.125" customWidth="1"/>
+    <col min="27" max="27" width="10.75" customWidth="1"/>
+    <col min="28" max="28" width="15.25" customWidth="1"/>
+    <col min="29" max="30" width="14.125" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="10.77734375" customWidth="1"/>
-    <col min="33" max="33" width="14.109375" customWidth="1"/>
-    <col min="34" max="34" width="11.88671875" customWidth="1"/>
-    <col min="35" max="35" width="14.109375" customWidth="1"/>
-    <col min="36" max="36" width="8.6640625" customWidth="1"/>
-    <col min="37" max="37" width="15.21875" customWidth="1"/>
-    <col min="38" max="38" width="10.77734375" customWidth="1"/>
-    <col min="39" max="42" width="11.88671875" customWidth="1"/>
-    <col min="43" max="43" width="9.6640625" customWidth="1"/>
-    <col min="44" max="44" width="7.6640625" customWidth="1"/>
-    <col min="45" max="45" width="14.109375" customWidth="1"/>
-    <col min="46" max="46" width="10.77734375" customWidth="1"/>
+    <col min="32" max="32" width="10.75" customWidth="1"/>
+    <col min="33" max="33" width="14.125" customWidth="1"/>
+    <col min="34" max="34" width="11.875" customWidth="1"/>
+    <col min="35" max="35" width="14.125" customWidth="1"/>
+    <col min="36" max="36" width="8.625" customWidth="1"/>
+    <col min="37" max="37" width="15.25" customWidth="1"/>
+    <col min="38" max="38" width="10.75" customWidth="1"/>
+    <col min="39" max="42" width="11.875" customWidth="1"/>
+    <col min="43" max="43" width="9.625" customWidth="1"/>
+    <col min="44" max="44" width="7.625" customWidth="1"/>
+    <col min="45" max="45" width="14.125" customWidth="1"/>
+    <col min="46" max="46" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -2330,7 +2339,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -2457,136 +2466,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="11" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="11" width="11.875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" customWidth="1"/>
-    <col min="15" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="9.625" customWidth="1"/>
+    <col min="20" max="20" width="7.625" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" customWidth="1"/>
-    <col min="23" max="23" width="23.109375" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" customWidth="1"/>
-    <col min="25" max="25" width="15.21875" customWidth="1"/>
-    <col min="26" max="27" width="14.109375" customWidth="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="23.125" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="15.25" customWidth="1"/>
+    <col min="26" max="27" width="14.125" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="10.77734375" customWidth="1"/>
-    <col min="30" max="30" width="14.109375" customWidth="1"/>
-    <col min="31" max="31" width="11.88671875" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" customWidth="1"/>
-    <col min="33" max="33" width="9.6640625" customWidth="1"/>
+    <col min="29" max="29" width="10.75" customWidth="1"/>
+    <col min="30" max="30" width="14.125" customWidth="1"/>
+    <col min="31" max="31" width="11.875" customWidth="1"/>
+    <col min="32" max="32" width="14.125" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="9.6640625" customWidth="1"/>
-    <col min="36" max="36" width="14.109375" customWidth="1"/>
-    <col min="37" max="37" width="26.44140625" customWidth="1"/>
+    <col min="35" max="35" width="9.625" customWidth="1"/>
+    <col min="36" max="36" width="14.125" customWidth="1"/>
+    <col min="37" max="37" width="26.5" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="9.6640625" customWidth="1"/>
-    <col min="40" max="40" width="8.6640625" customWidth="1"/>
-    <col min="41" max="41" width="9.6640625" customWidth="1"/>
-    <col min="42" max="42" width="14.109375" customWidth="1"/>
-    <col min="43" max="43" width="9.6640625" customWidth="1"/>
-    <col min="44" max="44" width="14.109375" customWidth="1"/>
-    <col min="45" max="46" width="17.44140625" customWidth="1"/>
-    <col min="47" max="47" width="7.6640625" customWidth="1"/>
-    <col min="48" max="48" width="17.44140625" customWidth="1"/>
-    <col min="49" max="49" width="20.88671875" customWidth="1"/>
-    <col min="50" max="50" width="15.21875" customWidth="1"/>
-    <col min="51" max="51" width="14.109375" customWidth="1"/>
-    <col min="52" max="52" width="7.6640625" customWidth="1"/>
-    <col min="53" max="53" width="17.44140625" customWidth="1"/>
-    <col min="54" max="54" width="19.77734375" customWidth="1"/>
-    <col min="55" max="55" width="11.88671875" customWidth="1"/>
-    <col min="56" max="56" width="8.6640625" customWidth="1"/>
-    <col min="57" max="57" width="16.44140625" customWidth="1"/>
-    <col min="58" max="58" width="14.109375" customWidth="1"/>
-    <col min="59" max="59" width="17.44140625" customWidth="1"/>
-    <col min="60" max="60" width="16.44140625" customWidth="1"/>
+    <col min="39" max="39" width="9.625" customWidth="1"/>
+    <col min="40" max="40" width="8.625" customWidth="1"/>
+    <col min="41" max="41" width="9.625" customWidth="1"/>
+    <col min="42" max="42" width="14.125" customWidth="1"/>
+    <col min="43" max="43" width="9.625" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="46" width="17.5" customWidth="1"/>
+    <col min="47" max="47" width="7.625" customWidth="1"/>
+    <col min="48" max="48" width="17.5" customWidth="1"/>
+    <col min="49" max="49" width="20.875" customWidth="1"/>
+    <col min="50" max="50" width="15.25" customWidth="1"/>
+    <col min="51" max="51" width="14.125" customWidth="1"/>
+    <col min="52" max="52" width="7.625" customWidth="1"/>
+    <col min="53" max="53" width="17.5" customWidth="1"/>
+    <col min="54" max="54" width="19.75" customWidth="1"/>
+    <col min="55" max="55" width="11.875" customWidth="1"/>
+    <col min="56" max="56" width="8.625" customWidth="1"/>
+    <col min="57" max="57" width="16.5" customWidth="1"/>
+    <col min="58" max="58" width="14.125" customWidth="1"/>
+    <col min="59" max="59" width="17.5" customWidth="1"/>
+    <col min="60" max="60" width="16.5" customWidth="1"/>
     <col min="61" max="61" width="13" customWidth="1"/>
-    <col min="62" max="62" width="18.6640625" customWidth="1"/>
-    <col min="63" max="63" width="6.6640625" customWidth="1"/>
-    <col min="64" max="65" width="15.21875" customWidth="1"/>
-    <col min="66" max="66" width="11.88671875" customWidth="1"/>
-    <col min="67" max="67" width="17.44140625" customWidth="1"/>
-    <col min="68" max="68" width="20.88671875" customWidth="1"/>
-    <col min="69" max="69" width="16.44140625" customWidth="1"/>
+    <col min="62" max="62" width="18.625" customWidth="1"/>
+    <col min="63" max="63" width="6.625" customWidth="1"/>
+    <col min="64" max="65" width="15.25" customWidth="1"/>
+    <col min="66" max="66" width="11.875" customWidth="1"/>
+    <col min="67" max="67" width="17.5" customWidth="1"/>
+    <col min="68" max="68" width="20.875" customWidth="1"/>
+    <col min="69" max="69" width="16.5" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.88671875" customWidth="1"/>
-    <col min="72" max="72" width="8.6640625" customWidth="1"/>
-    <col min="73" max="73" width="10.77734375" customWidth="1"/>
-    <col min="74" max="74" width="15.21875" customWidth="1"/>
-    <col min="75" max="75" width="11.88671875" customWidth="1"/>
-    <col min="76" max="76" width="10.77734375" customWidth="1"/>
-    <col min="77" max="78" width="17.44140625" customWidth="1"/>
-    <col min="79" max="79" width="16.44140625" customWidth="1"/>
-    <col min="80" max="80" width="11.88671875" customWidth="1"/>
-    <col min="81" max="81" width="18.6640625" customWidth="1"/>
-    <col min="82" max="82" width="19.77734375" customWidth="1"/>
+    <col min="71" max="71" width="11.875" customWidth="1"/>
+    <col min="72" max="72" width="8.625" customWidth="1"/>
+    <col min="73" max="73" width="10.75" customWidth="1"/>
+    <col min="74" max="74" width="15.25" customWidth="1"/>
+    <col min="75" max="75" width="11.875" customWidth="1"/>
+    <col min="76" max="76" width="10.75" customWidth="1"/>
+    <col min="77" max="78" width="17.5" customWidth="1"/>
+    <col min="79" max="79" width="16.5" customWidth="1"/>
+    <col min="80" max="80" width="11.875" customWidth="1"/>
+    <col min="81" max="81" width="18.625" customWidth="1"/>
+    <col min="82" max="82" width="19.75" customWidth="1"/>
     <col min="83" max="83" width="13" customWidth="1"/>
-    <col min="84" max="84" width="14.109375" customWidth="1"/>
+    <col min="84" max="84" width="14.125" customWidth="1"/>
     <col min="85" max="86" width="13" customWidth="1"/>
-    <col min="87" max="87" width="16.44140625" customWidth="1"/>
-    <col min="88" max="88" width="17.44140625" customWidth="1"/>
-    <col min="89" max="89" width="9.6640625" customWidth="1"/>
-    <col min="90" max="90" width="19.77734375" customWidth="1"/>
-    <col min="91" max="91" width="16.44140625" customWidth="1"/>
-    <col min="92" max="92" width="20.88671875" customWidth="1"/>
-    <col min="93" max="93" width="24.21875" customWidth="1"/>
-    <col min="94" max="94" width="16.44140625" customWidth="1"/>
-    <col min="95" max="95" width="17.44140625" customWidth="1"/>
+    <col min="87" max="87" width="16.5" customWidth="1"/>
+    <col min="88" max="88" width="17.5" customWidth="1"/>
+    <col min="89" max="89" width="9.625" customWidth="1"/>
+    <col min="90" max="90" width="19.75" customWidth="1"/>
+    <col min="91" max="91" width="16.5" customWidth="1"/>
+    <col min="92" max="92" width="20.875" customWidth="1"/>
+    <col min="93" max="93" width="24.25" customWidth="1"/>
+    <col min="94" max="94" width="16.5" customWidth="1"/>
+    <col min="95" max="95" width="17.5" customWidth="1"/>
     <col min="96" max="96" width="22" customWidth="1"/>
-    <col min="97" max="98" width="20.88671875" customWidth="1"/>
-    <col min="99" max="99" width="19.77734375" customWidth="1"/>
-    <col min="100" max="100" width="17.44140625" customWidth="1"/>
-    <col min="101" max="101" width="20.88671875" customWidth="1"/>
-    <col min="102" max="102" width="18.6640625" customWidth="1"/>
-    <col min="103" max="103" width="8.6640625" customWidth="1"/>
-    <col min="104" max="104" width="15.21875" customWidth="1"/>
-    <col min="105" max="105" width="10.77734375" customWidth="1"/>
-    <col min="106" max="108" width="11.88671875" customWidth="1"/>
+    <col min="97" max="98" width="20.875" customWidth="1"/>
+    <col min="99" max="99" width="19.75" customWidth="1"/>
+    <col min="100" max="100" width="17.5" customWidth="1"/>
+    <col min="101" max="101" width="20.875" customWidth="1"/>
+    <col min="102" max="102" width="18.625" customWidth="1"/>
+    <col min="103" max="103" width="8.625" customWidth="1"/>
+    <col min="104" max="104" width="15.25" customWidth="1"/>
+    <col min="105" max="105" width="10.75" customWidth="1"/>
+    <col min="106" max="108" width="11.875" customWidth="1"/>
     <col min="109" max="109" width="13" customWidth="1"/>
-    <col min="110" max="110" width="16.44140625" customWidth="1"/>
-    <col min="111" max="111" width="15.21875" customWidth="1"/>
-    <col min="112" max="113" width="17.44140625" customWidth="1"/>
-    <col min="114" max="114" width="16.44140625" customWidth="1"/>
+    <col min="110" max="110" width="16.5" customWidth="1"/>
+    <col min="111" max="111" width="15.25" customWidth="1"/>
+    <col min="112" max="113" width="17.5" customWidth="1"/>
+    <col min="114" max="114" width="16.5" customWidth="1"/>
     <col min="115" max="116" width="13" customWidth="1"/>
-    <col min="117" max="117" width="11.88671875" customWidth="1"/>
+    <col min="117" max="117" width="11.875" customWidth="1"/>
     <col min="118" max="119" width="13" customWidth="1"/>
-    <col min="120" max="120" width="15.21875" customWidth="1"/>
-    <col min="121" max="122" width="17.44140625" customWidth="1"/>
-    <col min="123" max="123" width="15.21875" customWidth="1"/>
-    <col min="124" max="125" width="17.44140625" customWidth="1"/>
-    <col min="126" max="126" width="14.109375" customWidth="1"/>
-    <col min="127" max="128" width="16.44140625" customWidth="1"/>
-    <col min="129" max="129" width="11.88671875" customWidth="1"/>
-    <col min="130" max="131" width="14.109375" customWidth="1"/>
-    <col min="132" max="132" width="15.21875" customWidth="1"/>
-    <col min="133" max="134" width="17.44140625" customWidth="1"/>
+    <col min="120" max="120" width="15.25" customWidth="1"/>
+    <col min="121" max="122" width="17.5" customWidth="1"/>
+    <col min="123" max="123" width="15.25" customWidth="1"/>
+    <col min="124" max="125" width="17.5" customWidth="1"/>
+    <col min="126" max="126" width="14.125" customWidth="1"/>
+    <col min="127" max="128" width="16.5" customWidth="1"/>
+    <col min="129" max="129" width="11.875" customWidth="1"/>
+    <col min="130" max="131" width="14.125" customWidth="1"/>
+    <col min="132" max="132" width="15.25" customWidth="1"/>
+    <col min="133" max="134" width="17.5" customWidth="1"/>
     <col min="135" max="135" width="13" customWidth="1"/>
-    <col min="136" max="137" width="15.21875" customWidth="1"/>
-    <col min="138" max="138" width="19.77734375" customWidth="1"/>
-    <col min="139" max="139" width="7.6640625" customWidth="1"/>
+    <col min="136" max="137" width="15.25" customWidth="1"/>
+    <col min="138" max="138" width="19.75" customWidth="1"/>
+    <col min="139" max="139" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>177</v>
       </c>
@@ -3388,7 +3397,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>177</v>
       </c>
@@ -3778,144 +3787,144 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AZ7" sqref="AZ7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AT24" sqref="AT24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" customWidth="1"/>
-    <col min="15" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" customWidth="1"/>
-    <col min="26" max="26" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="19.75" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="20" width="7.625" customWidth="1"/>
+    <col min="21" max="21" width="10.75" customWidth="1"/>
+    <col min="22" max="22" width="9.625" customWidth="1"/>
+    <col min="23" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="16.5" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="26" max="26" width="11.875" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" customWidth="1"/>
-    <col min="30" max="30" width="23.109375" customWidth="1"/>
-    <col min="31" max="31" width="10.77734375" customWidth="1"/>
-    <col min="32" max="32" width="15.21875" customWidth="1"/>
-    <col min="33" max="34" width="14.109375" customWidth="1"/>
+    <col min="28" max="28" width="8.625" customWidth="1"/>
+    <col min="29" max="29" width="9.625" customWidth="1"/>
+    <col min="30" max="30" width="23.125" customWidth="1"/>
+    <col min="31" max="31" width="10.75" customWidth="1"/>
+    <col min="32" max="32" width="15.25" customWidth="1"/>
+    <col min="33" max="34" width="14.125" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.6640625" customWidth="1"/>
+    <col min="37" max="37" width="9.625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.77734375" customWidth="1"/>
-    <col min="40" max="40" width="14.109375" customWidth="1"/>
-    <col min="41" max="41" width="11.88671875" customWidth="1"/>
-    <col min="42" max="43" width="9.6640625" customWidth="1"/>
-    <col min="44" max="44" width="14.109375" customWidth="1"/>
-    <col min="45" max="45" width="19.77734375" customWidth="1"/>
-    <col min="46" max="46" width="9.6640625" customWidth="1"/>
+    <col min="39" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="14.125" customWidth="1"/>
+    <col min="41" max="41" width="11.875" customWidth="1"/>
+    <col min="42" max="43" width="9.625" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="19.75" customWidth="1"/>
+    <col min="46" max="46" width="9.625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.109375" customWidth="1"/>
-    <col min="49" max="49" width="8.6640625" customWidth="1"/>
-    <col min="50" max="50" width="17.44140625" customWidth="1"/>
-    <col min="51" max="51" width="11.88671875" customWidth="1"/>
-    <col min="52" max="52" width="8.6640625" customWidth="1"/>
-    <col min="53" max="53" width="9.6640625" customWidth="1"/>
+    <col min="48" max="48" width="14.125" customWidth="1"/>
+    <col min="49" max="49" width="8.625" customWidth="1"/>
+    <col min="50" max="50" width="17.5" customWidth="1"/>
+    <col min="51" max="51" width="11.875" customWidth="1"/>
+    <col min="52" max="52" width="8.625" customWidth="1"/>
+    <col min="53" max="53" width="9.625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.44140625" customWidth="1"/>
+    <col min="55" max="55" width="16.5" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.44140625" customWidth="1"/>
-    <col min="59" max="59" width="15.21875" customWidth="1"/>
-    <col min="60" max="60" width="5.6640625" customWidth="1"/>
-    <col min="61" max="61" width="17.44140625" customWidth="1"/>
-    <col min="62" max="62" width="14.109375" customWidth="1"/>
-    <col min="63" max="63" width="11.88671875" customWidth="1"/>
-    <col min="64" max="64" width="8.6640625" customWidth="1"/>
-    <col min="65" max="65" width="14.109375" customWidth="1"/>
-    <col min="66" max="66" width="9.6640625" customWidth="1"/>
-    <col min="67" max="67" width="17.44140625" customWidth="1"/>
-    <col min="68" max="68" width="16.44140625" customWidth="1"/>
-    <col min="69" max="69" width="11.88671875" customWidth="1"/>
+    <col min="58" max="58" width="16.5" customWidth="1"/>
+    <col min="59" max="59" width="15.25" customWidth="1"/>
+    <col min="60" max="60" width="5.625" customWidth="1"/>
+    <col min="61" max="61" width="17.5" customWidth="1"/>
+    <col min="62" max="62" width="14.125" customWidth="1"/>
+    <col min="63" max="63" width="11.875" customWidth="1"/>
+    <col min="64" max="64" width="8.625" customWidth="1"/>
+    <col min="65" max="65" width="14.125" customWidth="1"/>
+    <col min="66" max="66" width="9.625" customWidth="1"/>
+    <col min="67" max="67" width="17.5" customWidth="1"/>
+    <col min="68" max="68" width="16.5" customWidth="1"/>
+    <col min="69" max="69" width="11.875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.88671875" customWidth="1"/>
-    <col min="72" max="72" width="15.21875" customWidth="1"/>
-    <col min="73" max="73" width="11.88671875" customWidth="1"/>
+    <col min="71" max="71" width="11.875" customWidth="1"/>
+    <col min="72" max="72" width="15.25" customWidth="1"/>
+    <col min="73" max="73" width="11.875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.44140625" customWidth="1"/>
-    <col min="76" max="76" width="20.88671875" customWidth="1"/>
-    <col min="77" max="77" width="16.44140625" customWidth="1"/>
+    <col min="75" max="75" width="17.5" customWidth="1"/>
+    <col min="76" max="76" width="20.875" customWidth="1"/>
+    <col min="77" max="77" width="16.5" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.88671875" customWidth="1"/>
-    <col min="80" max="80" width="10.77734375" customWidth="1"/>
-    <col min="81" max="81" width="11.88671875" customWidth="1"/>
-    <col min="82" max="82" width="9.6640625" customWidth="1"/>
-    <col min="83" max="83" width="7.6640625" customWidth="1"/>
-    <col min="84" max="85" width="17.44140625" customWidth="1"/>
-    <col min="86" max="86" width="16.44140625" customWidth="1"/>
-    <col min="87" max="87" width="11.88671875" customWidth="1"/>
-    <col min="88" max="88" width="14.109375" customWidth="1"/>
-    <col min="89" max="89" width="11.88671875" customWidth="1"/>
-    <col min="90" max="90" width="10.77734375" customWidth="1"/>
-    <col min="91" max="91" width="11.88671875" customWidth="1"/>
-    <col min="92" max="92" width="19.77734375" customWidth="1"/>
-    <col min="93" max="93" width="16.44140625" customWidth="1"/>
-    <col min="94" max="94" width="23.109375" customWidth="1"/>
-    <col min="95" max="95" width="7.6640625" customWidth="1"/>
-    <col min="96" max="96" width="18.6640625" customWidth="1"/>
-    <col min="97" max="97" width="10.77734375" customWidth="1"/>
-    <col min="98" max="98" width="14.109375" customWidth="1"/>
+    <col min="79" max="79" width="11.875" customWidth="1"/>
+    <col min="80" max="80" width="10.75" customWidth="1"/>
+    <col min="81" max="81" width="11.875" customWidth="1"/>
+    <col min="82" max="82" width="9.625" customWidth="1"/>
+    <col min="83" max="83" width="7.625" customWidth="1"/>
+    <col min="84" max="85" width="17.5" customWidth="1"/>
+    <col min="86" max="86" width="16.5" customWidth="1"/>
+    <col min="87" max="87" width="11.875" customWidth="1"/>
+    <col min="88" max="88" width="14.125" customWidth="1"/>
+    <col min="89" max="89" width="11.875" customWidth="1"/>
+    <col min="90" max="90" width="10.75" customWidth="1"/>
+    <col min="91" max="91" width="11.875" customWidth="1"/>
+    <col min="92" max="92" width="19.75" customWidth="1"/>
+    <col min="93" max="93" width="16.5" customWidth="1"/>
+    <col min="94" max="94" width="23.125" customWidth="1"/>
+    <col min="95" max="95" width="7.625" customWidth="1"/>
+    <col min="96" max="96" width="18.625" customWidth="1"/>
+    <col min="97" max="97" width="10.75" customWidth="1"/>
+    <col min="98" max="98" width="14.125" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.44140625" customWidth="1"/>
+    <col min="100" max="100" width="16.5" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.6640625" customWidth="1"/>
-    <col min="104" max="104" width="16.44140625" customWidth="1"/>
-    <col min="105" max="105" width="14.109375" customWidth="1"/>
-    <col min="106" max="106" width="11.88671875" customWidth="1"/>
-    <col min="107" max="108" width="15.21875" customWidth="1"/>
-    <col min="109" max="109" width="9.6640625" customWidth="1"/>
+    <col min="103" max="103" width="9.625" customWidth="1"/>
+    <col min="104" max="104" width="16.5" customWidth="1"/>
+    <col min="105" max="105" width="14.125" customWidth="1"/>
+    <col min="106" max="106" width="11.875" customWidth="1"/>
+    <col min="107" max="108" width="15.25" customWidth="1"/>
+    <col min="109" max="109" width="9.625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.6640625" customWidth="1"/>
-    <col min="112" max="112" width="15.21875" customWidth="1"/>
-    <col min="113" max="113" width="17.44140625" customWidth="1"/>
-    <col min="114" max="114" width="14.109375" customWidth="1"/>
-    <col min="115" max="115" width="19.77734375" customWidth="1"/>
-    <col min="116" max="116" width="16.44140625" customWidth="1"/>
-    <col min="117" max="117" width="20.88671875" customWidth="1"/>
-    <col min="118" max="118" width="24.21875" customWidth="1"/>
-    <col min="119" max="119" width="16.44140625" customWidth="1"/>
-    <col min="120" max="120" width="17.44140625" customWidth="1"/>
+    <col min="111" max="111" width="9.625" customWidth="1"/>
+    <col min="112" max="112" width="15.25" customWidth="1"/>
+    <col min="113" max="113" width="17.5" customWidth="1"/>
+    <col min="114" max="114" width="14.125" customWidth="1"/>
+    <col min="115" max="115" width="19.75" customWidth="1"/>
+    <col min="116" max="116" width="16.5" customWidth="1"/>
+    <col min="117" max="117" width="20.875" customWidth="1"/>
+    <col min="118" max="118" width="24.25" customWidth="1"/>
+    <col min="119" max="119" width="16.5" customWidth="1"/>
+    <col min="120" max="120" width="17.5" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.88671875" customWidth="1"/>
-    <col min="124" max="124" width="19.77734375" customWidth="1"/>
-    <col min="125" max="125" width="17.44140625" customWidth="1"/>
-    <col min="126" max="126" width="20.88671875" customWidth="1"/>
-    <col min="127" max="127" width="18.6640625" customWidth="1"/>
-    <col min="128" max="128" width="8.6640625" customWidth="1"/>
-    <col min="129" max="129" width="15.21875" customWidth="1"/>
+    <col min="122" max="123" width="20.875" customWidth="1"/>
+    <col min="124" max="124" width="19.75" customWidth="1"/>
+    <col min="125" max="125" width="17.5" customWidth="1"/>
+    <col min="126" max="126" width="20.875" customWidth="1"/>
+    <col min="127" max="127" width="18.625" customWidth="1"/>
+    <col min="128" max="128" width="8.625" customWidth="1"/>
+    <col min="129" max="129" width="15.25" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="16.44140625" customWidth="1"/>
-    <col min="132" max="132" width="10.77734375" customWidth="1"/>
-    <col min="133" max="133" width="11.88671875" customWidth="1"/>
-    <col min="134" max="134" width="15.21875" customWidth="1"/>
-    <col min="135" max="135" width="16.44140625" customWidth="1"/>
-    <col min="136" max="136" width="14.109375" customWidth="1"/>
+    <col min="131" max="131" width="16.5" customWidth="1"/>
+    <col min="132" max="132" width="10.75" customWidth="1"/>
+    <col min="133" max="133" width="11.875" customWidth="1"/>
+    <col min="134" max="134" width="15.25" customWidth="1"/>
+    <col min="135" max="135" width="16.5" customWidth="1"/>
+    <col min="136" max="136" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -4325,7 +4334,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>534</v>
       </c>
@@ -4663,7 +4672,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>540</v>
       </c>
@@ -5008,559 +5017,556 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:EJ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="15" width="11.88671875" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" customWidth="1"/>
-    <col min="17" max="18" width="7.6640625" customWidth="1"/>
-    <col min="19" max="20" width="14.109375" customWidth="1"/>
-    <col min="21" max="21" width="6.6640625" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="23" max="23" width="23.109375" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" customWidth="1"/>
-    <col min="25" max="26" width="13" customWidth="1"/>
-    <col min="27" max="27" width="11.88671875" customWidth="1"/>
-    <col min="28" max="29" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="6.625" customWidth="1"/>
+    <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
+    <col min="15" max="16" width="11.875" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="18" max="19" width="7.625" customWidth="1"/>
+    <col min="20" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="6.625" customWidth="1"/>
+    <col min="23" max="23" width="18.625" customWidth="1"/>
+    <col min="24" max="24" width="23.125" customWidth="1"/>
+    <col min="25" max="25" width="16.5" customWidth="1"/>
+    <col min="26" max="27" width="13" customWidth="1"/>
+    <col min="28" max="28" width="11.875" customWidth="1"/>
+    <col min="29" max="30" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:140" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DA1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DB1" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DC1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DE1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DG1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DH1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DI1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DL1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DM1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DN1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DO1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DP1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DU1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DW1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DX1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DY1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EB1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EC1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="ED1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EG1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EH1" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EI1" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:140" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>535</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>535</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>233</v>
       </c>
       <c r="AF2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AJ2" s="2" t="s">
         <v>62</v>
       </c>
@@ -5568,100 +5574,100 @@
         <v>62</v>
       </c>
       <c r="AL2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AY2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AZ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="BA2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="BB2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BC2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BG2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BL2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="BM2" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BN2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BO2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="BQ2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="BR2" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="BS2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="BT2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BW2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="BX2" s="2" t="s">
         <v>59</v>
@@ -5670,235 +5676,235 @@
         <v>59</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="CB2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="CD2" s="2" t="s">
+      <c r="CC2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="CE2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="CG2" s="2" t="s">
-        <v>48</v>
+      <c r="CF2" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="CH2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CI2" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="CK2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CN2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CS2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="CT2" s="2" t="s">
+      <c r="CU2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="CV2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="DA2" s="2" t="s">
+      <c r="CW2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="DB2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="DC2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="DD2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="DE2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="DF2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="DF2" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="DG2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="DH2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="DI2" s="2" t="s">
+      <c r="DJ2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="DJ2" s="2" t="s">
+      <c r="DK2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="DK2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="DL2" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="DM2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="DN2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="DO2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="DO2" s="2" t="s">
+      <c r="DP2" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="DP2" s="2" t="s">
+      <c r="DQ2" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="DQ2" s="2" t="s">
+      <c r="DR2" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="DR2" s="2" t="s">
+      <c r="DS2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="DS2" s="2" t="s">
+      <c r="DT2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="DT2" s="2" t="s">
+      <c r="DU2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="DU2" s="2" t="s">
+      <c r="DV2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="DV2" s="2" t="s">
+      <c r="DW2" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="DW2" s="2" t="s">
+      <c r="DX2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="DX2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="DY2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EA2" s="2" t="s">
+      <c r="DZ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EB2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="EC2" s="2" t="s">
+      <c r="ED2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="ED2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="EE2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EG2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="EI2" s="2" t="s">
+      <c r="EF2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EH2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="EJ2" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="2:140" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>535</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>535</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>209</v>
       </c>
       <c r="AF3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AI3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AJ3" s="2" t="s">
         <v>62</v>
       </c>
@@ -5906,100 +5912,100 @@
         <v>62</v>
       </c>
       <c r="AL3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AY3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AZ3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="BA3" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="BB3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BC3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BG3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BL3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="BM3" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BN3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BO3" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="BQ3" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="BR3" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="BS3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="BT3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BW3" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="BW3" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="BX3" s="2" t="s">
         <v>59</v>
@@ -6008,132 +6014,135 @@
         <v>59</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="CB3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CC3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="CE3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="CG3" s="2" t="s">
-        <v>48</v>
+      <c r="CF3" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="CH3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CI3" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="CJ3" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="CK3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="CL3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CN3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CM3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="CR3" s="2" t="s">
+      <c r="CS3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="CT3" s="2" t="s">
+      <c r="CU3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="CV3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="DA3" s="2" t="s">
+      <c r="CW3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="DB3" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="DC3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="DD3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="DE3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="DF3" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="DF3" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="DG3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="DH3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="DI3" s="2" t="s">
+      <c r="DJ3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="DJ3" s="2" t="s">
+      <c r="DK3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="DK3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="DL3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="DM3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="DN3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="DO3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="DO3" s="2" t="s">
+      <c r="DP3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="DP3" s="2" t="s">
+      <c r="DQ3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="DQ3" s="2" t="s">
+      <c r="DR3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DR3" s="2" t="s">
+      <c r="DS3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="DS3" s="2" t="s">
+      <c r="DT3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="DT3" s="2" t="s">
+      <c r="DU3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="DU3" s="2" t="s">
+      <c r="DV3" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="DV3" s="2" t="s">
+      <c r="DW3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="DW3" s="2" t="s">
+      <c r="DX3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="DX3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="DY3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EA3" s="2" t="s">
+      <c r="DZ3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EB3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="EC3" s="2" t="s">
+      <c r="ED3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="ED3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="EE3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="EG3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="EI3" s="2" t="s">
+      <c r="EF3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EH3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="EJ3" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6144,323 +6153,320 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:CI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
+    <row r="2" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>301</v>
+        <v>62</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>301</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>48</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>48</v>
@@ -6472,31 +6478,31 @@
         <v>48</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>48</v>
@@ -6535,14 +6541,14 @@
         <v>48</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="AP2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AQ2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="AR2" s="2" t="s">
         <v>48</v>
       </c>
@@ -6556,10 +6562,10 @@
         <v>48</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>48</v>
@@ -6586,25 +6592,25 @@
         <v>48</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="BK2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BM2" s="2" t="s">
         <v>48</v>
@@ -6613,20 +6619,20 @@
         <v>48</v>
       </c>
       <c r="BO2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP2" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BQ2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="BR2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="BS2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="BT2" s="2" t="s">
         <v>48</v>
       </c>
@@ -6670,6 +6676,9 @@
         <v>48</v>
       </c>
       <c r="CH2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CI2" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6680,16 +6689,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
@@ -6919,7 +6928,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>530</v>
       </c>
@@ -7158,8 +7167,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7167,16 +7176,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:EP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -7616,7 +7625,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>497</v>
       </c>
@@ -8023,7 +8032,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>177</v>
       </c>
@@ -8427,7 +8436,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8435,16 +8444,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:DV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
@@ -8824,7 +8833,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -9171,7 +9180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -9518,8 +9527,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
